--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,40 +32,43 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8534" uniqueCount="675">
   <si>
     <t>target</t>
   </si>
@@ -2028,13 +2031,97 @@
   <si>
     <t>assertBetween(num,min,max)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2491,8 +2578,760 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="109">
+  <fills count="325">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3106,8 +3945,1232 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="109">
+  <borders count="333">
     <border>
       <left/>
       <right/>
@@ -4177,13 +6240,2269 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="223">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4475,40 +8794,400 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="96" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="96" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="111" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="114" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="124" fillId="117" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="120" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="126" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="129" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="132" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="138" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="141" fontId="88" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="152" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="150" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="156" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="156" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="159" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="165" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="168" fontId="103" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="171" fontId="104" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="177" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="183" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="183" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="192" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="195" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="208" fillId="198" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="204" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="207" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="210" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="210" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="219" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="222" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="236" fillId="225" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="231" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="234" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="237" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="237" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="246" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="249" fontId="148" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="264" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="258" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="261" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="264" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="264" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="267" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="273" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="292" fillId="279" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="285" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="288" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="291" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="300" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="303" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="306" borderId="320" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="312" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="318" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5787,7 +10466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5848,24 +10527,33 @@
         <v>634</v>
       </c>
       <c r="Q1" t="s">
+        <v>647</v>
+      </c>
+      <c r="R1" t="s">
+        <v>648</v>
+      </c>
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>630</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5901,13 +10589,13 @@
         <v>604</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>653</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="M2" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
@@ -5919,24 +10607,33 @@
         <v>635</v>
       </c>
       <c r="Q2" t="s">
+        <v>659</v>
+      </c>
+      <c r="R2" t="s">
+        <v>660</v>
+      </c>
+      <c r="S2" t="s">
         <v>597</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>631</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5972,10 +10669,10 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>656</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -5986,25 +10683,31 @@
       <c r="P3" t="s">
         <v>636</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>661</v>
+      </c>
+      <c r="S3" t="s">
         <v>598</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>632</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>53</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6037,7 +10740,7 @@
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
         <v>46</v>
@@ -6051,25 +10754,31 @@
       <c r="P4" t="s">
         <v>637</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>662</v>
+      </c>
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>633</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>67</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>68</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>69</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>70</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6096,7 +10805,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
         <v>63</v>
@@ -6110,22 +10819,28 @@
       <c r="P5" t="s">
         <v>638</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>663</v>
+      </c>
+      <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>81</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>82</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>83</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>84</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6149,7 +10864,7 @@
         <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
         <v>77</v>
@@ -6163,22 +10878,25 @@
       <c r="P6" t="s">
         <v>639</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>66</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>94</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>95</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>96</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>97</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6202,7 +10920,7 @@
         <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>91</v>
@@ -6210,22 +10928,28 @@
       <c r="N7" t="s">
         <v>105</v>
       </c>
+      <c r="O7" t="s">
+        <v>658</v>
+      </c>
       <c r="P7" t="s">
         <v>640</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>80</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>107</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>108</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>109</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6249,7 +10973,7 @@
         <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
         <v>104</v>
@@ -6260,19 +10984,22 @@
       <c r="P8" t="s">
         <v>641</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>93</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>117</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>118</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>119</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6293,7 +11020,7 @@
         <v>610</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
         <v>115</v>
@@ -6304,16 +11031,16 @@
       <c r="P9" t="s">
         <v>642</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>106</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>127</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>128</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6331,10 +11058,10 @@
         <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>657</v>
       </c>
       <c r="N10" t="s">
         <v>135</v>
@@ -6342,13 +11069,13 @@
       <c r="P10" t="s">
         <v>643</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>136</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>137</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Z10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6366,21 +11093,21 @@
         <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N11" t="s">
         <v>143</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>144</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>145</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Z11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6397,16 +11124,19 @@
       <c r="I12" t="s">
         <v>140</v>
       </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
         <v>151</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>152</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6424,15 +11154,15 @@
         <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s">
         <v>158</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>159</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6450,15 +11180,15 @@
         <v>156</v>
       </c>
       <c r="M14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s">
         <v>164</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>165</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6475,13 +11205,16 @@
       <c r="I15" t="s">
         <v>163</v>
       </c>
+      <c r="M15" t="s">
+        <v>157</v>
+      </c>
       <c r="N15" t="s">
         <v>170</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>171</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6490,7 +11223,7 @@
         <v>634</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>650</v>
       </c>
       <c r="E16" t="s">
         <v>162</v>
@@ -6501,19 +11234,19 @@
       <c r="N16" t="s">
         <v>176</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>177</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>647</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
         <v>168</v>
@@ -6521,16 +11254,16 @@
       <c r="I17" t="s">
         <v>169</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
         <v>174</v>
@@ -6538,16 +11271,16 @@
       <c r="I18" t="s">
         <v>612</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
         <v>180</v>
@@ -6555,16 +11288,16 @@
       <c r="I19" t="s">
         <v>175</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>630</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
         <v>184</v>
@@ -6572,16 +11305,16 @@
       <c r="I20" t="s">
         <v>181</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
         <v>188</v>
@@ -6589,139 +11322,154 @@
       <c r="I21" t="s">
         <v>185</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
         <v>191</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
         <v>194</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
         <v>197</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>649</v>
+      </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>651</v>
       </c>
       <c r="E25" t="s">
         <v>200</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
         <v>203</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E27" t="s">
         <v>206</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
         <v>209</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E31" t="s">
         <v>218</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
       <c r="E32" t="s">
         <v>220</v>
       </c>
-      <c r="S32" t="s">
+      <c r="U32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>217</v>
+      </c>
       <c r="E33" t="s">
         <v>222</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6729,7 +11477,7 @@
       <c r="E34" t="s">
         <v>224</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6737,7 +11485,7 @@
       <c r="E35" t="s">
         <v>226</v>
       </c>
-      <c r="S35" t="s">
+      <c r="U35" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6745,7 +11493,7 @@
       <c r="E36" t="s">
         <v>228</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6753,524 +11501,542 @@
       <c r="E37" t="s">
         <v>230</v>
       </c>
-      <c r="S37" t="s">
-        <v>613</v>
+      <c r="U37" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>232</v>
       </c>
-      <c r="S38" t="s">
-        <v>235</v>
+      <c r="U38" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>234</v>
       </c>
-      <c r="S39" t="s">
-        <v>237</v>
+      <c r="U39" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>236</v>
       </c>
-      <c r="S40" t="s">
-        <v>239</v>
+      <c r="U40" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>238</v>
       </c>
-      <c r="S41" t="s">
-        <v>241</v>
+      <c r="U41" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>240</v>
       </c>
-      <c r="S42" t="s">
-        <v>243</v>
+      <c r="U42" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>242</v>
       </c>
-      <c r="S43" t="s">
-        <v>245</v>
+      <c r="U43" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>244</v>
       </c>
-      <c r="S44" t="s">
-        <v>247</v>
+      <c r="U44" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>246</v>
       </c>
-      <c r="S45" t="s">
-        <v>249</v>
+      <c r="U45" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>248</v>
       </c>
-      <c r="S46" t="s">
-        <v>251</v>
+      <c r="U46" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>250</v>
       </c>
-      <c r="S47" t="s">
-        <v>253</v>
+      <c r="U47" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>252</v>
       </c>
-      <c r="S48" t="s">
-        <v>255</v>
+      <c r="U48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>254</v>
       </c>
-      <c r="S49" t="s">
-        <v>257</v>
+      <c r="U49" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>256</v>
       </c>
-      <c r="S50" t="s">
-        <v>259</v>
+      <c r="U50" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>258</v>
       </c>
-      <c r="S51" t="s">
-        <v>261</v>
+      <c r="U51" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>264</v>
       </c>
-      <c r="S52" t="s">
-        <v>263</v>
+      <c r="U52" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>266</v>
       </c>
-      <c r="S53" t="s">
-        <v>265</v>
+      <c r="U53" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>268</v>
       </c>
-      <c r="S54" t="s">
-        <v>267</v>
+      <c r="U54" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>270</v>
       </c>
-      <c r="S55" t="s">
-        <v>269</v>
+      <c r="U55" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>272</v>
       </c>
-      <c r="S56" t="s">
-        <v>271</v>
+      <c r="U56" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>274</v>
       </c>
-      <c r="S57" t="s">
-        <v>273</v>
+      <c r="U57" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>276</v>
       </c>
-      <c r="S58" t="s">
-        <v>275</v>
+      <c r="U58" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>278</v>
       </c>
-      <c r="S59" t="s">
-        <v>609</v>
+      <c r="U59" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>280</v>
       </c>
-      <c r="S60" t="s">
-        <v>277</v>
+      <c r="U60" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>282</v>
       </c>
-      <c r="S61" t="s">
-        <v>279</v>
+      <c r="U61" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>284</v>
       </c>
-      <c r="S62" t="s">
-        <v>281</v>
+      <c r="U62" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>286</v>
       </c>
-      <c r="S63" t="s">
-        <v>283</v>
+      <c r="U63" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>288</v>
       </c>
-      <c r="S64" t="s">
-        <v>285</v>
+      <c r="U64" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>290</v>
       </c>
-      <c r="S65" t="s">
-        <v>287</v>
+      <c r="U65" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>292</v>
       </c>
-      <c r="S66" t="s">
-        <v>289</v>
+      <c r="U66" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>294</v>
       </c>
-      <c r="S67" t="s">
-        <v>291</v>
+      <c r="U67" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>296</v>
       </c>
-      <c r="S68" t="s">
-        <v>293</v>
+      <c r="U68" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>644</v>
       </c>
-      <c r="S69" t="s">
-        <v>295</v>
+      <c r="U69" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>298</v>
       </c>
-      <c r="S70" t="s">
-        <v>297</v>
+      <c r="U70" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>645</v>
       </c>
-      <c r="S71" t="s">
-        <v>299</v>
+      <c r="U71" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>300</v>
       </c>
-      <c r="S72" t="s">
-        <v>301</v>
+      <c r="U72" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>302</v>
       </c>
-      <c r="S73" t="s">
-        <v>303</v>
+      <c r="U73" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>304</v>
       </c>
-      <c r="S74" t="s">
-        <v>305</v>
+      <c r="U74" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>306</v>
       </c>
-      <c r="S75" t="s">
-        <v>307</v>
+      <c r="U75" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>308</v>
       </c>
-      <c r="S76" t="s">
-        <v>309</v>
+      <c r="U76" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>310</v>
-      </c>
-      <c r="S77" t="s">
-        <v>311</v>
+        <v>652</v>
+      </c>
+      <c r="U77" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>312</v>
-      </c>
-      <c r="S78" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="U78" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>314</v>
-      </c>
-      <c r="S79" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="U79" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>316</v>
-      </c>
-      <c r="S80" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="U80" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>318</v>
-      </c>
-      <c r="S81" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="U81" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>320</v>
-      </c>
-      <c r="S82" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="U82" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>322</v>
-      </c>
-      <c r="S83" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="U83" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>324</v>
-      </c>
-      <c r="S84" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="U84" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>326</v>
-      </c>
-      <c r="S85" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="U85" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>328</v>
-      </c>
-      <c r="S86" t="s">
-        <v>600</v>
+        <v>326</v>
+      </c>
+      <c r="U86" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>330</v>
-      </c>
-      <c r="S87" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="U87" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>332</v>
-      </c>
-      <c r="S88" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="U88" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>334</v>
-      </c>
-      <c r="S89" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="U89" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>336</v>
-      </c>
-      <c r="S90" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="U90" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>336</v>
+      </c>
+      <c r="U91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>338</v>
       </c>
-      <c r="S91" t="s">
+      <c r="U92" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="100">
-      <c r="S100" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="101">
-      <c r="S101" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="102">
-      <c r="S102" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="103">
-      <c r="S103" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="104">
-      <c r="S104" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="105">
-      <c r="S105" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="106">
-      <c r="S106" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="107">
-      <c r="S107" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="108">
-      <c r="S108" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8534" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8982" uniqueCount="676">
   <si>
     <t>target</t>
   </si>
@@ -2115,13 +2115,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3330,8 +3333,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="325">
+  <fills count="352">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5169,8 +5266,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="333">
+  <borders count="361">
     <border>
       <left/>
       <right/>
@@ -8496,13 +8746,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="238">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -9145,49 +9677,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="300" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="300" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="303" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="303" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="306" borderId="320" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="320" fillId="306" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="312" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="312" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="318" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="318" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="327" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="339" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="342" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10466,7 +11043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11678,7 +12255,7 @@
         <v>278</v>
       </c>
       <c r="U59" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60">
@@ -11686,7 +12263,7 @@
         <v>280</v>
       </c>
       <c r="U60" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61">
@@ -11694,7 +12271,7 @@
         <v>282</v>
       </c>
       <c r="U61" t="s">
-        <v>277</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62">
@@ -11702,7 +12279,7 @@
         <v>284</v>
       </c>
       <c r="U62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63">
@@ -11710,7 +12287,7 @@
         <v>286</v>
       </c>
       <c r="U63" t="s">
-        <v>665</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64">
@@ -11718,7 +12295,7 @@
         <v>288</v>
       </c>
       <c r="U64" t="s">
-        <v>281</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65">
@@ -11726,7 +12303,7 @@
         <v>290</v>
       </c>
       <c r="U65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66">
@@ -11734,7 +12311,7 @@
         <v>292</v>
       </c>
       <c r="U66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67">
@@ -11742,7 +12319,7 @@
         <v>294</v>
       </c>
       <c r="U67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68">
@@ -11750,7 +12327,7 @@
         <v>296</v>
       </c>
       <c r="U68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69">
@@ -11758,7 +12335,7 @@
         <v>644</v>
       </c>
       <c r="U69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70">
@@ -11766,7 +12343,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71">
@@ -11774,7 +12351,7 @@
         <v>645</v>
       </c>
       <c r="U71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72">
@@ -11782,7 +12359,7 @@
         <v>300</v>
       </c>
       <c r="U72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73">
@@ -11790,7 +12367,7 @@
         <v>302</v>
       </c>
       <c r="U73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74">
@@ -11798,7 +12375,7 @@
         <v>304</v>
       </c>
       <c r="U74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75">
@@ -11806,7 +12383,7 @@
         <v>306</v>
       </c>
       <c r="U75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76">
@@ -11814,7 +12391,7 @@
         <v>308</v>
       </c>
       <c r="U76" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77">
@@ -11822,7 +12399,7 @@
         <v>652</v>
       </c>
       <c r="U77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78">
@@ -11830,7 +12407,7 @@
         <v>310</v>
       </c>
       <c r="U78" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79">
@@ -11838,7 +12415,7 @@
         <v>312</v>
       </c>
       <c r="U79" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80">
@@ -11846,7 +12423,7 @@
         <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81">
@@ -11854,7 +12431,7 @@
         <v>316</v>
       </c>
       <c r="U81" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82">
@@ -11862,7 +12439,7 @@
         <v>318</v>
       </c>
       <c r="U82" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83">
@@ -11870,7 +12447,7 @@
         <v>320</v>
       </c>
       <c r="U83" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84">
@@ -11878,7 +12455,7 @@
         <v>322</v>
       </c>
       <c r="U84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85">
@@ -11886,7 +12463,7 @@
         <v>324</v>
       </c>
       <c r="U85" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86">
@@ -11894,7 +12471,7 @@
         <v>326</v>
       </c>
       <c r="U86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87">
@@ -11902,7 +12479,7 @@
         <v>328</v>
       </c>
       <c r="U87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88">
@@ -11910,7 +12487,7 @@
         <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89">
@@ -11918,7 +12495,7 @@
         <v>332</v>
       </c>
       <c r="U89" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90">
@@ -11926,7 +12503,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91">
@@ -11934,7 +12511,7 @@
         <v>336</v>
       </c>
       <c r="U91" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92">
@@ -11942,101 +12519,106 @@
         <v>338</v>
       </c>
       <c r="U92" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -33,16 +33,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -52,8 +52,8 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8982" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9437" uniqueCount="684">
   <si>
     <t>target</t>
   </si>
@@ -2118,13 +2118,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3427,8 +3451,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="352">
+  <fills count="379">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5419,8 +5537,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="361">
+  <borders count="389">
     <border>
       <left/>
       <right/>
@@ -9028,13 +9299,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="253">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -9722,49 +10275,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="327" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="327" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="333" borderId="348" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="348" fillId="333" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="339" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="352" fillId="339" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="342" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="342" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="345" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="354" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="357" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="360" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="366" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="369" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="372" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="372" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11043,7 +11641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11369,6 +11967,9 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
+      <c r="D5" t="s">
+        <v>676</v>
+      </c>
       <c r="E5" t="s">
         <v>57</v>
       </c>
@@ -11462,7 +12063,7 @@
         <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>95</v>
+        <v>682</v>
       </c>
       <c r="W6" t="s">
         <v>96</v>
@@ -11517,6 +12118,9 @@
       <c r="U7" t="s">
         <v>107</v>
       </c>
+      <c r="V7" t="s">
+        <v>683</v>
+      </c>
       <c r="W7" t="s">
         <v>108</v>
       </c>
@@ -11567,6 +12171,9 @@
       <c r="U8" t="s">
         <v>117</v>
       </c>
+      <c r="V8" t="s">
+        <v>95</v>
+      </c>
       <c r="W8" t="s">
         <v>118</v>
       </c>
@@ -11635,7 +12242,7 @@
         <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>678</v>
       </c>
       <c r="M10" t="s">
         <v>657</v>
@@ -11670,7 +12277,7 @@
         <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s">
         <v>125</v>
@@ -11702,7 +12309,7 @@
         <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s">
         <v>134</v>
@@ -11730,6 +12337,9 @@
       <c r="I13" t="s">
         <v>149</v>
       </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
       <c r="M13" t="s">
         <v>142</v>
       </c>
@@ -11880,7 +12490,7 @@
         <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>677</v>
       </c>
       <c r="U20" t="s">
         <v>192</v>
@@ -11897,7 +12507,7 @@
         <v>188</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U21" t="s">
         <v>195</v>
@@ -11913,6 +12523,9 @@
       <c r="E22" t="s">
         <v>191</v>
       </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
       <c r="U22" t="s">
         <v>198</v>
       </c>
@@ -12143,7 +12756,7 @@
         <v>246</v>
       </c>
       <c r="U45" t="s">
-        <v>247</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46">
@@ -12151,7 +12764,7 @@
         <v>248</v>
       </c>
       <c r="U46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
@@ -12159,7 +12772,7 @@
         <v>250</v>
       </c>
       <c r="U47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
@@ -12167,7 +12780,7 @@
         <v>252</v>
       </c>
       <c r="U48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
@@ -12175,7 +12788,7 @@
         <v>254</v>
       </c>
       <c r="U49" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
@@ -12183,7 +12796,7 @@
         <v>256</v>
       </c>
       <c r="U50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
@@ -12191,7 +12804,7 @@
         <v>258</v>
       </c>
       <c r="U51" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52">
@@ -12199,7 +12812,7 @@
         <v>264</v>
       </c>
       <c r="U52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53">
@@ -12207,7 +12820,7 @@
         <v>266</v>
       </c>
       <c r="U53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54">
@@ -12215,7 +12828,7 @@
         <v>268</v>
       </c>
       <c r="U54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55">
@@ -12223,7 +12836,7 @@
         <v>270</v>
       </c>
       <c r="U55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56">
@@ -12231,7 +12844,7 @@
         <v>272</v>
       </c>
       <c r="U56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57">
@@ -12239,7 +12852,7 @@
         <v>274</v>
       </c>
       <c r="U57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
@@ -12247,7 +12860,7 @@
         <v>276</v>
       </c>
       <c r="U58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
@@ -12255,7 +12868,7 @@
         <v>278</v>
       </c>
       <c r="U59" t="s">
-        <v>675</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
@@ -12263,7 +12876,7 @@
         <v>280</v>
       </c>
       <c r="U60" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61">
@@ -12271,7 +12884,7 @@
         <v>282</v>
       </c>
       <c r="U61" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62">
@@ -12279,7 +12892,7 @@
         <v>284</v>
       </c>
       <c r="U62" t="s">
-        <v>277</v>
+        <v>609</v>
       </c>
     </row>
     <row r="63">
@@ -12287,7 +12900,7 @@
         <v>286</v>
       </c>
       <c r="U63" t="s">
-        <v>279</v>
+        <v>680</v>
       </c>
     </row>
     <row r="64">
@@ -12295,7 +12908,7 @@
         <v>288</v>
       </c>
       <c r="U64" t="s">
-        <v>665</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65">
@@ -12303,7 +12916,7 @@
         <v>290</v>
       </c>
       <c r="U65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66">
@@ -12311,7 +12924,7 @@
         <v>292</v>
       </c>
       <c r="U66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67">
@@ -12319,7 +12932,7 @@
         <v>294</v>
       </c>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68">
@@ -12327,7 +12940,7 @@
         <v>296</v>
       </c>
       <c r="U68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69">
@@ -12335,7 +12948,7 @@
         <v>644</v>
       </c>
       <c r="U69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70">
@@ -12343,7 +12956,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71">
@@ -12351,7 +12964,7 @@
         <v>645</v>
       </c>
       <c r="U71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72">
@@ -12359,7 +12972,7 @@
         <v>300</v>
       </c>
       <c r="U72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73">
@@ -12367,7 +12980,7 @@
         <v>302</v>
       </c>
       <c r="U73" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74">
@@ -12375,7 +12988,7 @@
         <v>304</v>
       </c>
       <c r="U74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75">
@@ -12383,7 +12996,7 @@
         <v>306</v>
       </c>
       <c r="U75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76">
@@ -12391,7 +13004,7 @@
         <v>308</v>
       </c>
       <c r="U76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77">
@@ -12399,7 +13012,7 @@
         <v>652</v>
       </c>
       <c r="U77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78">
@@ -12407,7 +13020,7 @@
         <v>310</v>
       </c>
       <c r="U78" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79">
@@ -12415,7 +13028,7 @@
         <v>312</v>
       </c>
       <c r="U79" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80">
@@ -12423,7 +13036,7 @@
         <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81">
@@ -12431,7 +13044,7 @@
         <v>316</v>
       </c>
       <c r="U81" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82">
@@ -12439,7 +13052,7 @@
         <v>318</v>
       </c>
       <c r="U82" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83">
@@ -12447,7 +13060,7 @@
         <v>320</v>
       </c>
       <c r="U83" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84">
@@ -12455,7 +13068,7 @@
         <v>322</v>
       </c>
       <c r="U84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85">
@@ -12463,7 +13076,7 @@
         <v>324</v>
       </c>
       <c r="U85" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86">
@@ -12471,7 +13084,7 @@
         <v>326</v>
       </c>
       <c r="U86" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87">
@@ -12479,7 +13092,7 @@
         <v>328</v>
       </c>
       <c r="U87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88">
@@ -12487,7 +13100,7 @@
         <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89">
@@ -12495,7 +13108,7 @@
         <v>332</v>
       </c>
       <c r="U89" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90">
@@ -12503,7 +13116,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91">
@@ -12511,7 +13124,7 @@
         <v>336</v>
       </c>
       <c r="U91" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92">
@@ -12519,106 +13132,116 @@
         <v>338</v>
       </c>
       <c r="U92" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>348</v>
+        <v>681</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9437" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9892" uniqueCount="684">
   <si>
     <t>target</t>
   </si>
@@ -2148,7 +2148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3545,8 +3545,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="379">
+  <fills count="406">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5690,8 +5784,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="389">
+  <borders count="417">
     <border>
       <left/>
       <right/>
@@ -9581,13 +9828,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="268">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -10320,49 +10849,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="354" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="354" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="357" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="357" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="360" borderId="376" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="376" fillId="360" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="366" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="380" fillId="366" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="369" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="369" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="372" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="372" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="372" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="372" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="381" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="384" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="387" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="393" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="396" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="399" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="399" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -42,7 +42,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9892" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10348" uniqueCount="684">
   <si>
     <t>target</t>
   </si>
@@ -2148,7 +2148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3639,8 +3639,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="406">
+  <fills count="433">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5937,8 +6031,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="417">
+  <borders count="445">
     <border>
       <left/>
       <right/>
@@ -10110,13 +10357,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -10894,49 +11423,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="381" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="381" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="384" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="384" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="387" borderId="404" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="404" fillId="387" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="393" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="408" fillId="393" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="396" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="396" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="399" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="399" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="399" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="399" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="402" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="408" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="411" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="414" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="423" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="426" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12672,7 +13246,7 @@
         <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
         <v>91</v>
@@ -12728,7 +13302,7 @@
         <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
         <v>104</v>
@@ -12778,7 +13352,7 @@
         <v>610</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
         <v>115</v>
@@ -12816,7 +13390,7 @@
         <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>678</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s">
         <v>657</v>
@@ -12851,7 +13425,7 @@
         <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>678</v>
       </c>
       <c r="M11" t="s">
         <v>125</v>
@@ -12883,7 +13457,7 @@
         <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s">
         <v>134</v>
@@ -12912,7 +13486,7 @@
         <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
         <v>142</v>
@@ -12939,6 +13513,9 @@
       </c>
       <c r="I14" t="s">
         <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
       </c>
       <c r="M14" t="s">
         <v>150</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -37,7 +37,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10348" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11722" uniqueCount="687">
   <si>
     <t>target</t>
   </si>
@@ -2142,13 +2142,22 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3733,8 +3742,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="433">
+  <fills count="514">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6184,8 +6475,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="445">
+  <borders count="529">
     <border>
       <left/>
       <right/>
@@ -10639,13 +11389,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="328">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -11468,49 +13064,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="408" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="408" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="411" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="411" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="414" borderId="432" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="432" fillId="414" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="420" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="420" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="423" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="423" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="426" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="426" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="435" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="438" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="460" fillId="441" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="447" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="450" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="453" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="453" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="462" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="465" fontId="268" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="488" fillId="468" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="474" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="477" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="480" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="480" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="489" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="495" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="501" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="507" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12977,7 +14708,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>686</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -13051,7 +14782,7 @@
         <v>607</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>685</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -13122,7 +14853,7 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -13184,7 +14915,7 @@
         <v>608</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>89</v>
@@ -13240,7 +14971,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -13296,7 +15027,7 @@
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>113</v>
@@ -13348,6 +15079,9 @@
       <c r="E9" t="s">
         <v>100</v>
       </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" t="s">
         <v>610</v>
       </c>
@@ -13385,6 +15119,9 @@
       </c>
       <c r="E10" t="s">
         <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
       </c>
       <c r="I10" t="s">
         <v>123</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,12 +32,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11722" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12646" uniqueCount="691">
   <si>
     <t>target</t>
   </si>
@@ -2151,13 +2151,25 @@
   <si>
     <t>csv(file,worksheet,range,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4024,8 +4036,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="514">
+  <fills count="568">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6934,8 +7134,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="529">
+  <borders count="585">
     <border>
       <left/>
       <right/>
@@ -12235,13 +12741,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="358">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -13199,49 +14269,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="489" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="489" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="495" borderId="516" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="516" fillId="495" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="501" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="501" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="507" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="507" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="510" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="516" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="519" fontId="298" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="544" fillId="522" fontId="299" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="528" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="531" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="534" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="534" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="543" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="546" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="549" borderId="572" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="555" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="561" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="561" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14628,7 +15788,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>688</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -14708,7 +15868,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -14782,7 +15942,7 @@
         <v>607</v>
       </c>
       <c r="F4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -14853,7 +16013,7 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>686</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -14915,7 +16075,7 @@
         <v>608</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>685</v>
       </c>
       <c r="I6" t="s">
         <v>89</v>
@@ -14971,7 +16131,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -15027,7 +16187,7 @@
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
         <v>113</v>
@@ -15080,7 +16240,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>690</v>
       </c>
       <c r="I9" t="s">
         <v>610</v>
@@ -15121,7 +16281,7 @@
         <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>123</v>
@@ -15158,6 +16318,9 @@
       <c r="E11" t="s">
         <v>122</v>
       </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
       <c r="I11" t="s">
         <v>132</v>
       </c>
@@ -15190,6 +16353,9 @@
       <c r="E12" t="s">
         <v>131</v>
       </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
       <c r="I12" t="s">
         <v>140</v>
       </c>
@@ -15219,6 +16385,9 @@
       <c r="E13" t="s">
         <v>139</v>
       </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
       <c r="I13" t="s">
         <v>149</v>
       </c>
@@ -15423,7 +16592,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>687</v>
       </c>
       <c r="E23" t="s">
         <v>194</v>
@@ -15437,7 +16606,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
         <v>197</v>
@@ -15451,7 +16620,7 @@
         <v>649</v>
       </c>
       <c r="C25" t="s">
-        <v>651</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
         <v>200</v>
@@ -15465,7 +16634,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>651</v>
       </c>
       <c r="E26" t="s">
         <v>203</v>
@@ -15476,7 +16645,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
         <v>206</v>
@@ -15487,7 +16656,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E28" t="s">
         <v>209</v>
@@ -15498,7 +16667,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
@@ -15509,7 +16678,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -15520,7 +16689,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
         <v>218</v>
@@ -15531,7 +16700,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
         <v>220</v>
@@ -15542,7 +16711,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
         <v>222</v>
@@ -15552,6 +16721,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>217</v>
+      </c>
       <c r="E34" t="s">
         <v>224</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12646" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13572" uniqueCount="693">
   <si>
     <t>target</t>
   </si>
@@ -2163,13 +2163,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4224,8 +4230,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="568">
+  <fills count="622">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7440,8 +7634,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="585">
+  <borders count="641">
     <border>
       <left/>
       <right/>
@@ -13305,13 +13805,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="388">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -14359,49 +15423,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="543" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="543" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="546" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="546" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="549" borderId="572" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="572" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="555" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="576" fillId="555" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="561" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="561" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="561" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="561" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="570" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="573" fontId="328" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="600" fillId="576" fontId="329" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="331" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="604" fillId="582" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="585" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="588" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="588" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="597" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="603" borderId="628" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="609" borderId="632" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="615" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15680,7 +16834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17072,7 +18226,7 @@
         <v>652</v>
       </c>
       <c r="U77" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78">
@@ -17080,7 +18234,7 @@
         <v>310</v>
       </c>
       <c r="U78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79">
@@ -17088,7 +18242,7 @@
         <v>312</v>
       </c>
       <c r="U79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80">
@@ -17096,7 +18250,7 @@
         <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81">
@@ -17104,7 +18258,7 @@
         <v>316</v>
       </c>
       <c r="U81" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82">
@@ -17112,7 +18266,7 @@
         <v>318</v>
       </c>
       <c r="U82" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="83">
@@ -17120,7 +18274,7 @@
         <v>320</v>
       </c>
       <c r="U83" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84">
@@ -17128,7 +18282,7 @@
         <v>322</v>
       </c>
       <c r="U84" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="85">
@@ -17136,7 +18290,7 @@
         <v>324</v>
       </c>
       <c r="U85" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86">
@@ -17144,7 +18298,7 @@
         <v>326</v>
       </c>
       <c r="U86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87">
@@ -17152,7 +18306,7 @@
         <v>328</v>
       </c>
       <c r="U87" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88">
@@ -17160,7 +18314,7 @@
         <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89">
@@ -17168,7 +18322,7 @@
         <v>332</v>
       </c>
       <c r="U89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90">
@@ -17176,7 +18330,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91">
@@ -17184,7 +18338,7 @@
         <v>336</v>
       </c>
       <c r="U91" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92">
@@ -17192,116 +18346,121 @@
         <v>338</v>
       </c>
       <c r="U92" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13572" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="694">
   <si>
     <t>target</t>
   </si>
@@ -2169,13 +2169,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4418,8 +4421,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="622">
+  <fills count="649">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7940,8 +8037,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="641">
+  <borders count="669">
     <border>
       <left/>
       <right/>
@@ -14369,13 +14619,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="403">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -15513,49 +16045,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="597" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="597" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="603" borderId="628" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="628" fillId="603" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="609" borderId="632" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="632" fillId="609" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="636" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="615" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="615" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="640" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="648" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="627" borderId="652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="630" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="636" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="639" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="642" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="642" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16834,7 +17411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18170,7 +18747,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>289</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71">
@@ -18178,7 +18755,7 @@
         <v>645</v>
       </c>
       <c r="U71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72">
@@ -18186,7 +18763,7 @@
         <v>300</v>
       </c>
       <c r="U72" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73">
@@ -18194,7 +18771,7 @@
         <v>302</v>
       </c>
       <c r="U73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74">
@@ -18202,7 +18779,7 @@
         <v>304</v>
       </c>
       <c r="U74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75">
@@ -18210,7 +18787,7 @@
         <v>306</v>
       </c>
       <c r="U75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76">
@@ -18218,7 +18795,7 @@
         <v>308</v>
       </c>
       <c r="U76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77">
@@ -18226,7 +18803,7 @@
         <v>652</v>
       </c>
       <c r="U77" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78">
@@ -18234,7 +18811,7 @@
         <v>310</v>
       </c>
       <c r="U78" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79">
@@ -18242,7 +18819,7 @@
         <v>312</v>
       </c>
       <c r="U79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80">
@@ -18250,7 +18827,7 @@
         <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81">
@@ -18258,7 +18835,7 @@
         <v>316</v>
       </c>
       <c r="U81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82">
@@ -18266,7 +18843,7 @@
         <v>318</v>
       </c>
       <c r="U82" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83">
@@ -18274,7 +18851,7 @@
         <v>320</v>
       </c>
       <c r="U83" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84">
@@ -18282,7 +18859,7 @@
         <v>322</v>
       </c>
       <c r="U84" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85">
@@ -18290,7 +18867,7 @@
         <v>324</v>
       </c>
       <c r="U85" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86">
@@ -18298,7 +18875,7 @@
         <v>326</v>
       </c>
       <c r="U86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87">
@@ -18306,7 +18883,7 @@
         <v>328</v>
       </c>
       <c r="U87" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88">
@@ -18314,7 +18891,7 @@
         <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89">
@@ -18322,7 +18899,7 @@
         <v>332</v>
       </c>
       <c r="U89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90">
@@ -18330,7 +18907,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91">
@@ -18338,7 +18915,7 @@
         <v>336</v>
       </c>
       <c r="U91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92">
@@ -18346,121 +18923,126 @@
         <v>338</v>
       </c>
       <c r="U92" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -37,7 +37,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14036" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14501" uniqueCount="695">
   <si>
     <t>target</t>
   </si>
@@ -2172,13 +2172,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="371" x14ac:knownFonts="1">
+  <fonts count="386" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4515,8 +4518,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="649">
+  <fills count="676">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8190,8 +8287,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="669">
+  <borders count="697">
     <border>
       <left/>
       <right/>
@@ -14901,13 +15151,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="418">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -16090,49 +16622,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="648" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="627" borderId="652" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="627" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="630" borderId="656" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="656" fillId="630" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="636" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="636" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="639" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="664" fillId="639" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="642" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="642" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="642" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="642" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="651" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="654" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="663" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="666" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="669" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="669" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17744,7 +18321,7 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -17806,7 +18383,7 @@
         <v>608</v>
       </c>
       <c r="F6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I6" t="s">
         <v>89</v>
@@ -17862,7 +18439,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>685</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -17918,7 +18495,7 @@
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
         <v>113</v>
@@ -17971,7 +18548,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>690</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>610</v>
@@ -18012,7 +18589,7 @@
         <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>690</v>
       </c>
       <c r="I10" t="s">
         <v>123</v>
@@ -18050,7 +18627,7 @@
         <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>132</v>
@@ -18085,7 +18662,7 @@
         <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
         <v>140</v>
@@ -18117,7 +18694,7 @@
         <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
         <v>149</v>
@@ -18147,6 +18724,9 @@
       </c>
       <c r="E14" t="s">
         <v>148</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
       </c>
       <c r="I14" t="s">
         <v>156</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -40,7 +40,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14501" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14967" uniqueCount="696">
   <si>
     <t>target</t>
   </si>
@@ -2175,13 +2175,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="386" x14ac:knownFonts="1">
+  <fonts count="401" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4612,8 +4615,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="676">
+  <fills count="703">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8440,8 +8537,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="697">
+  <borders count="725">
     <border>
       <left/>
       <right/>
@@ -15433,13 +15683,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="433">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -16667,49 +17199,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="651" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="651" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="654" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="654" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="684" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="684" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="663" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="688" fillId="663" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="666" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="666" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="669" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="669" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="669" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="669" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="678" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="681" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="684" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="690" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="693" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="696" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="696" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18729,7 +19306,7 @@
         <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>695</v>
       </c>
       <c r="K14" t="s">
         <v>141</v>
@@ -18758,7 +19335,7 @@
         <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s">
         <v>157</v>
@@ -18784,7 +19361,7 @@
         <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>596</v>
+        <v>163</v>
       </c>
       <c r="N16" t="s">
         <v>176</v>
@@ -18807,7 +19384,7 @@
         <v>168</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>596</v>
       </c>
       <c r="U17" t="s">
         <v>182</v>
@@ -18824,7 +19401,7 @@
         <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>612</v>
+        <v>169</v>
       </c>
       <c r="U18" t="s">
         <v>186</v>
@@ -18841,7 +19418,7 @@
         <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>612</v>
       </c>
       <c r="U19" t="s">
         <v>189</v>
@@ -18858,7 +19435,7 @@
         <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>677</v>
+        <v>175</v>
       </c>
       <c r="U20" t="s">
         <v>192</v>
@@ -18875,7 +19452,7 @@
         <v>188</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>677</v>
       </c>
       <c r="U21" t="s">
         <v>195</v>
@@ -18892,7 +19469,7 @@
         <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U22" t="s">
         <v>198</v>
@@ -18907,6 +19484,9 @@
       </c>
       <c r="E23" t="s">
         <v>194</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
       </c>
       <c r="U23" t="s">
         <v>201</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14967" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15435" uniqueCount="698">
   <si>
     <t>target</t>
   </si>
@@ -2178,13 +2178,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="401" x14ac:knownFonts="1">
+  <fonts count="416" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4709,8 +4715,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="703">
+  <fills count="730">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8690,8 +8790,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="725">
+  <borders count="753">
     <border>
       <left/>
       <right/>
@@ -15965,13 +16218,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="448">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -17244,49 +17779,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="678" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="678" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="681" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="681" fontId="388" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="684" borderId="712" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="712" fillId="684" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="391" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="690" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="716" fillId="690" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="693" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="693" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="696" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="696" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="696" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="696" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="705" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="708" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="711" borderId="740" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="717" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="720" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="723" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="723" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18744,7 +19324,7 @@
         <v>589</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>696</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -18818,7 +19398,7 @@
         <v>590</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -18889,7 +19469,7 @@
         <v>591</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>697</v>
       </c>
       <c r="D5" t="s">
         <v>676</v>
@@ -18954,7 +19534,7 @@
         <v>592</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>608</v>
@@ -19010,7 +19590,7 @@
         <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>
@@ -19066,7 +19646,7 @@
         <v>594</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
@@ -19119,7 +19699,7 @@
         <v>595</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
         <v>100</v>
@@ -19160,7 +19740,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>111</v>
@@ -19198,7 +19778,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>122</v>
@@ -19233,7 +19813,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
         <v>131</v>
@@ -19265,7 +19845,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>139</v>
@@ -19297,7 +19877,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>605</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
         <v>148</v>
@@ -19329,7 +19909,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>606</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
         <v>155</v>
@@ -19355,7 +19935,7 @@
         <v>634</v>
       </c>
       <c r="C16" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="E16" t="s">
         <v>162</v>
@@ -19378,7 +19958,7 @@
         <v>647</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>606</v>
       </c>
       <c r="E17" t="s">
         <v>168</v>
@@ -19395,7 +19975,7 @@
         <v>648</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>650</v>
       </c>
       <c r="E18" t="s">
         <v>174</v>
@@ -19412,7 +19992,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>180</v>
@@ -19429,7 +20009,7 @@
         <v>630</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>184</v>
@@ -19446,7 +20026,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s">
         <v>188</v>
@@ -19463,7 +20043,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
         <v>191</v>
@@ -19480,7 +20060,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>687</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
         <v>194</v>
@@ -19497,7 +20077,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
         <v>197</v>
@@ -19511,7 +20091,7 @@
         <v>649</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="E25" t="s">
         <v>200</v>
@@ -19525,7 +20105,7 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>651</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
         <v>203</v>
@@ -19536,7 +20116,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
         <v>206</v>
@@ -19547,7 +20127,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>199</v>
+        <v>651</v>
       </c>
       <c r="E28" t="s">
         <v>209</v>
@@ -19558,7 +20138,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
         <v>212</v>
@@ -19569,7 +20149,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E30" t="s">
         <v>215</v>
@@ -19580,7 +20160,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
         <v>218</v>
@@ -19591,7 +20171,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
         <v>220</v>
@@ -19602,7 +20182,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
         <v>222</v>
@@ -19613,7 +20193,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
         <v>224</v>
@@ -19623,6 +20203,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>214</v>
+      </c>
       <c r="E35" t="s">
         <v>226</v>
       </c>
@@ -19631,6 +20214,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
       <c r="E36" t="s">
         <v>228</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15435" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15904" uniqueCount="699">
   <si>
     <t>target</t>
   </si>
@@ -2184,13 +2184,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="416" x14ac:knownFonts="1">
+  <fonts count="431" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4809,8 +4812,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="730">
+  <fills count="757">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8943,8 +9040,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="753">
+  <borders count="781">
     <border>
       <left/>
       <right/>
@@ -16500,13 +16750,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="463">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -17824,49 +18356,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="705" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="705" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="708" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="708" fontId="403" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="711" borderId="740" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="740" fillId="711" fontId="404" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="717" borderId="744" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="744" fillId="717" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="720" borderId="748" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="720" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="723" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="723" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="723" borderId="752" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="723" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="732" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="735" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="738" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="744" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="747" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="750" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="750" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19145,7 +19722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20357,7 +20934,7 @@
         <v>266</v>
       </c>
       <c r="U53" t="s">
-        <v>261</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54">
@@ -20365,7 +20942,7 @@
         <v>268</v>
       </c>
       <c r="U54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55">
@@ -20373,7 +20950,7 @@
         <v>270</v>
       </c>
       <c r="U55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56">
@@ -20381,7 +20958,7 @@
         <v>272</v>
       </c>
       <c r="U56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57">
@@ -20389,7 +20966,7 @@
         <v>274</v>
       </c>
       <c r="U57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58">
@@ -20397,7 +20974,7 @@
         <v>276</v>
       </c>
       <c r="U58" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59">
@@ -20405,7 +20982,7 @@
         <v>278</v>
       </c>
       <c r="U59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60">
@@ -20413,7 +20990,7 @@
         <v>280</v>
       </c>
       <c r="U60" t="s">
-        <v>675</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61">
@@ -20421,7 +20998,7 @@
         <v>282</v>
       </c>
       <c r="U61" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62">
@@ -20429,7 +21006,7 @@
         <v>284</v>
       </c>
       <c r="U62" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63">
@@ -20437,7 +21014,7 @@
         <v>286</v>
       </c>
       <c r="U63" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64">
@@ -20445,7 +21022,7 @@
         <v>288</v>
       </c>
       <c r="U64" t="s">
-        <v>277</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65">
@@ -20453,7 +21030,7 @@
         <v>290</v>
       </c>
       <c r="U65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66">
@@ -20461,7 +21038,7 @@
         <v>292</v>
       </c>
       <c r="U66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67">
@@ -20469,7 +21046,7 @@
         <v>294</v>
       </c>
       <c r="U67" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68">
@@ -20477,7 +21054,7 @@
         <v>296</v>
       </c>
       <c r="U68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69">
@@ -20485,7 +21062,7 @@
         <v>644</v>
       </c>
       <c r="U69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70">
@@ -20493,7 +21070,7 @@
         <v>298</v>
       </c>
       <c r="U70" t="s">
-        <v>693</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71">
@@ -20501,7 +21078,7 @@
         <v>645</v>
       </c>
       <c r="U71" t="s">
-        <v>289</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72">
@@ -20509,7 +21086,7 @@
         <v>300</v>
       </c>
       <c r="U72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73">
@@ -20517,7 +21094,7 @@
         <v>302</v>
       </c>
       <c r="U73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74">
@@ -20525,7 +21102,7 @@
         <v>304</v>
       </c>
       <c r="U74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75">
@@ -20533,7 +21110,7 @@
         <v>306</v>
       </c>
       <c r="U75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76">
@@ -20541,7 +21118,7 @@
         <v>308</v>
       </c>
       <c r="U76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77">
@@ -20549,7 +21126,7 @@
         <v>652</v>
       </c>
       <c r="U77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78">
@@ -20557,7 +21134,7 @@
         <v>310</v>
       </c>
       <c r="U78" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79">
@@ -20565,7 +21142,7 @@
         <v>312</v>
       </c>
       <c r="U79" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80">
@@ -20573,7 +21150,7 @@
         <v>314</v>
       </c>
       <c r="U80" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81">
@@ -20581,7 +21158,7 @@
         <v>316</v>
       </c>
       <c r="U81" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82">
@@ -20589,7 +21166,7 @@
         <v>318</v>
       </c>
       <c r="U82" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83">
@@ -20597,7 +21174,7 @@
         <v>320</v>
       </c>
       <c r="U83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84">
@@ -20605,7 +21182,7 @@
         <v>322</v>
       </c>
       <c r="U84" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85">
@@ -20613,7 +21190,7 @@
         <v>324</v>
       </c>
       <c r="U85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="86">
@@ -20621,7 +21198,7 @@
         <v>326</v>
       </c>
       <c r="U86" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87">
@@ -20629,7 +21206,7 @@
         <v>328</v>
       </c>
       <c r="U87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88">
@@ -20637,7 +21214,7 @@
         <v>330</v>
       </c>
       <c r="U88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89">
@@ -20645,7 +21222,7 @@
         <v>332</v>
       </c>
       <c r="U89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90">
@@ -20653,7 +21230,7 @@
         <v>334</v>
       </c>
       <c r="U90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91">
@@ -20661,7 +21238,7 @@
         <v>336</v>
       </c>
       <c r="U91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92">
@@ -20669,126 +21246,131 @@
         <v>338</v>
       </c>
       <c r="U92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15904" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16373" uniqueCount="699">
   <si>
     <t>target</t>
   </si>
@@ -2193,7 +2193,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="431" x14ac:knownFonts="1">
+  <fonts count="446" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4906,8 +4906,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="757">
+  <fills count="784">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9193,8 +9287,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="781">
+  <borders count="809">
     <border>
       <left/>
       <right/>
@@ -17032,13 +17279,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="463">
+  <cellXfs count="478">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -18401,49 +18930,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="732" borderId="760" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="760" fillId="732" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="735" borderId="764" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="735" fontId="418" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="738" borderId="768" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="768" fillId="738" fontId="419" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="421" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="744" borderId="772" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="772" fillId="744" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="747" borderId="776" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="747" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="750" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="750" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="750" borderId="780" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="750" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="759" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="762" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="765" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="771" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="774" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="777" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="777" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,43 +32,44 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16373" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16848" uniqueCount="704">
   <si>
     <t>target</t>
   </si>
@@ -2187,13 +2188,28 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="446" x14ac:knownFonts="1">
+  <fonts count="462" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5000,8 +5016,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="784">
+  <fills count="811">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9440,8 +9557,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="809">
+  <borders count="837">
     <border>
       <left/>
       <right/>
@@ -17561,13 +17831,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="494">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -18975,49 +19527,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="759" borderId="788" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="759" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="762" borderId="792" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="762" fontId="433" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="765" borderId="796" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="796" fillId="765" fontId="434" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="436" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="771" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="800" fillId="771" fontId="438" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="774" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="774" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="777" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="777" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="777" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="777" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="786" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="789" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="792" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="795" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="801" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="804" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="807" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="807" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20296,7 +20896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20315,75 +20915,78 @@
         <v>587</v>
       </c>
       <c r="C1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>634</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>647</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>648</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>630</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>649</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -20395,1556 +20998,1571 @@
         <v>588</v>
       </c>
       <c r="C2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>688</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>604</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>653</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>654</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>655</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>635</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>659</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>660</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>597</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>631</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>668</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
         <v>589</v>
       </c>
       <c r="C3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" t="s">
         <v>696</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>656</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>636</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>661</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>598</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>632</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>50</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>51</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>590</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>607</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>689</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>60</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>637</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>662</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>31</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>633</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>67</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>68</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>69</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>669</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>697</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>676</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>694</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>75</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>702</v>
+      </c>
+      <c r="L5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>638</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>663</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>49</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>81</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>82</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>670</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>592</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>608</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>686</v>
       </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>611</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>639</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>66</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>94</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>682</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>96</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>671</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>593</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>685</v>
       </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>105</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>658</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>640</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>80</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>107</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>683</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>108</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>672</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>594</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>87</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>116</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>641</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>93</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>117</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>118</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>119</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>673</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>595</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>100</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
-        <v>610</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>126</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>642</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>106</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>127</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>128</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>111</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>690</v>
       </c>
-      <c r="I10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>610</v>
+      </c>
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>657</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>135</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>643</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>136</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>137</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
         <v>678</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>125</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>143</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>144</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>145</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>130</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>131</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>88</v>
       </c>
-      <c r="I12" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
         <v>124</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>134</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>151</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>152</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>139</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>142</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>158</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>159</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>147</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>148</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>112</v>
       </c>
-      <c r="I14" t="s">
-        <v>695</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
         <v>141</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>150</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>164</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>165</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>154</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>155</v>
       </c>
-      <c r="I15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>695</v>
+      </c>
+      <c r="N15" t="s">
         <v>157</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>170</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>171</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>605</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>162</v>
       </c>
-      <c r="I16" t="s">
-        <v>163</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
         <v>176</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>177</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>647</v>
-      </c>
-      <c r="C17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D17" t="s">
         <v>606</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>168</v>
       </c>
-      <c r="I17" t="s">
-        <v>596</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="V17" t="s">
         <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>648</v>
-      </c>
-      <c r="C18" t="s">
+        <v>647</v>
+      </c>
+      <c r="D18" t="s">
         <v>650</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>174</v>
       </c>
-      <c r="I18" t="s">
-        <v>169</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>596</v>
+      </c>
+      <c r="V18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+        <v>648</v>
+      </c>
+      <c r="D19" t="s">
         <v>161</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>180</v>
       </c>
-      <c r="I19" t="s">
-        <v>612</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="V19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>630</v>
-      </c>
-      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>167</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>184</v>
       </c>
-      <c r="I20" t="s">
-        <v>175</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>612</v>
+      </c>
+      <c r="V20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D21" t="s">
         <v>173</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>188</v>
       </c>
-      <c r="I21" t="s">
-        <v>677</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>179</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>191</v>
       </c>
-      <c r="I22" t="s">
-        <v>181</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>677</v>
+      </c>
+      <c r="V22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>183</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>194</v>
       </c>
-      <c r="I23" t="s">
-        <v>185</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="V23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
         <v>187</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>197</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="V24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>649</v>
-      </c>
-      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>687</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>200</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="V26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>203</v>
-      </c>
-      <c r="U26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>193</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>206</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>651</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>209</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>196</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>212</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>199</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>202</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>218</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>205</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>220</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>222</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>211</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>224</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>214</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>217</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>228</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>230</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>232</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>234</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>236</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>238</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>240</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>242</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>244</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>246</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>248</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>250</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>252</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>254</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>256</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>258</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>264</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>266</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>268</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>270</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>272</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>274</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>276</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>278</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>280</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>282</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>284</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>286</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>288</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>290</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>292</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>294</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>296</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>644</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>298</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>645</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>300</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>302</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>304</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>306</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>308</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>652</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>310</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>312</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>314</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>316</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>318</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>320</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>322</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>324</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>326</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>328</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>330</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>332</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>334</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>336</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>338</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16848" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17324" uniqueCount="706">
   <si>
     <t>target</t>
   </si>
@@ -2203,13 +2203,19 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="462" x14ac:knownFonts="1">
+  <fonts count="478" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5117,8 +5123,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="811">
+  <fills count="838">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9710,8 +9817,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="837">
+  <borders count="865">
     <border>
       <left/>
       <right/>
@@ -18113,13 +18373,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="510">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -19572,52 +20114,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="786" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="786" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="789" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="789" fontId="448" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="792" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="824" fillId="792" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="795" borderId="824" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="824" fillId="795" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="452" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="801" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="828" fillId="801" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="804" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="804" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="807" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="807" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="807" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="807" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="813" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="816" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="822" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="828" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="831" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="834" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="834" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20896,7 +21486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20998,7 +21588,7 @@
         <v>588</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -22110,7 +22700,7 @@
         <v>258</v>
       </c>
       <c r="V51" t="s">
-        <v>257</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52">
@@ -22118,7 +22708,7 @@
         <v>264</v>
       </c>
       <c r="V52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53">
@@ -22126,7 +22716,7 @@
         <v>266</v>
       </c>
       <c r="V53" t="s">
-        <v>698</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54">
@@ -22134,7 +22724,7 @@
         <v>268</v>
       </c>
       <c r="V54" t="s">
-        <v>261</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55">
@@ -22142,7 +22732,7 @@
         <v>270</v>
       </c>
       <c r="V55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56">
@@ -22150,7 +22740,7 @@
         <v>272</v>
       </c>
       <c r="V56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57">
@@ -22158,7 +22748,7 @@
         <v>274</v>
       </c>
       <c r="V57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58">
@@ -22166,7 +22756,7 @@
         <v>276</v>
       </c>
       <c r="V58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59">
@@ -22174,7 +22764,7 @@
         <v>278</v>
       </c>
       <c r="V59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
@@ -22182,7 +22772,7 @@
         <v>280</v>
       </c>
       <c r="V60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61">
@@ -22190,7 +22780,7 @@
         <v>282</v>
       </c>
       <c r="V61" t="s">
-        <v>675</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62">
@@ -22198,7 +22788,7 @@
         <v>284</v>
       </c>
       <c r="V62" t="s">
-        <v>275</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63">
@@ -22206,7 +22796,7 @@
         <v>286</v>
       </c>
       <c r="V63" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64">
@@ -22214,7 +22804,7 @@
         <v>288</v>
       </c>
       <c r="V64" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65">
@@ -22222,7 +22812,7 @@
         <v>290</v>
       </c>
       <c r="V65" t="s">
-        <v>277</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66">
@@ -22230,7 +22820,7 @@
         <v>292</v>
       </c>
       <c r="V66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67">
@@ -22238,7 +22828,7 @@
         <v>294</v>
       </c>
       <c r="V67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68">
@@ -22246,7 +22836,7 @@
         <v>296</v>
       </c>
       <c r="V68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69">
@@ -22254,7 +22844,7 @@
         <v>644</v>
       </c>
       <c r="V69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70">
@@ -22262,7 +22852,7 @@
         <v>298</v>
       </c>
       <c r="V70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71">
@@ -22270,7 +22860,7 @@
         <v>645</v>
       </c>
       <c r="V71" t="s">
-        <v>693</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72">
@@ -22278,7 +22868,7 @@
         <v>300</v>
       </c>
       <c r="V72" t="s">
-        <v>289</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73">
@@ -22286,7 +22876,7 @@
         <v>302</v>
       </c>
       <c r="V73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74">
@@ -22294,7 +22884,7 @@
         <v>304</v>
       </c>
       <c r="V74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75">
@@ -22302,7 +22892,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76">
@@ -22310,7 +22900,7 @@
         <v>308</v>
       </c>
       <c r="V76" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77">
@@ -22318,7 +22908,7 @@
         <v>652</v>
       </c>
       <c r="V77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78">
@@ -22326,7 +22916,7 @@
         <v>310</v>
       </c>
       <c r="V78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79">
@@ -22334,7 +22924,7 @@
         <v>312</v>
       </c>
       <c r="V79" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80">
@@ -22342,7 +22932,7 @@
         <v>314</v>
       </c>
       <c r="V80" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81">
@@ -22350,7 +22940,7 @@
         <v>316</v>
       </c>
       <c r="V81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82">
@@ -22358,7 +22948,7 @@
         <v>318</v>
       </c>
       <c r="V82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83">
@@ -22366,7 +22956,7 @@
         <v>320</v>
       </c>
       <c r="V83" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84">
@@ -22374,7 +22964,7 @@
         <v>322</v>
       </c>
       <c r="V84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85">
@@ -22382,7 +22972,7 @@
         <v>324</v>
       </c>
       <c r="V85" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86">
@@ -22390,7 +22980,7 @@
         <v>326</v>
       </c>
       <c r="V86" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87">
@@ -22398,7 +22988,7 @@
         <v>328</v>
       </c>
       <c r="V87" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88">
@@ -22406,7 +22996,7 @@
         <v>330</v>
       </c>
       <c r="V88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89">
@@ -22414,7 +23004,7 @@
         <v>332</v>
       </c>
       <c r="V89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90">
@@ -22422,7 +23012,7 @@
         <v>334</v>
       </c>
       <c r="V90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91">
@@ -22430,7 +23020,7 @@
         <v>336</v>
       </c>
       <c r="V91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92">
@@ -22438,131 +23028,136 @@
         <v>338</v>
       </c>
       <c r="V92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -39,7 +39,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17324" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18756" uniqueCount="709">
   <si>
     <t>target</t>
   </si>
@@ -2209,13 +2209,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="478" x14ac:knownFonts="1">
+  <fonts count="526" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5224,8 +5233,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="838">
+  <fills count="919">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9970,8 +10282,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="865">
+  <borders count="949">
     <border>
       <left/>
       <right/>
@@ -18655,13 +19426,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -20162,52 +21779,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="813" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="813" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="816" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="816" fontId="464" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="819" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="819" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="822" borderId="852" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="852" fillId="822" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="468" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="828" borderId="856" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="831" borderId="860" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="834" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="834" borderId="864" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="475" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="856" fillId="828" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="831" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="834" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="834" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="840" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="843" fontId="480" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="880" fillId="846" fontId="481" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="880" fillId="849" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="484" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="884" fillId="855" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="888" fillId="858" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="861" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="861" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="900" fillId="867" fontId="494" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="870" fontId="496" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="908" fillId="873" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="908" fillId="876" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="500" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="912" fillId="882" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="885" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="888" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="888" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="894" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="897" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="900" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="903" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="909" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="912" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="915" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="915" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21606,7 +23367,7 @@
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>708</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -21689,7 +23450,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
@@ -21760,7 +23521,7 @@
         <v>689</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>60</v>
@@ -21831,7 +23592,7 @@
         <v>694</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>702</v>
@@ -21891,6 +23652,9 @@
       </c>
       <c r="G6" t="s">
         <v>686</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -40,7 +40,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18756" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20195" uniqueCount="713">
   <si>
     <t>target</t>
   </si>
@@ -2218,13 +2218,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="526" x14ac:knownFonts="1">
+  <fonts count="574" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5536,8 +5548,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="919">
+  <fills count="1000">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10741,8 +11056,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="949">
+  <borders count="1033">
     <border>
       <left/>
       <right/>
@@ -20272,13 +21046,859 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="606">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -21923,52 +23543,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="894" borderId="928" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="928" fillId="894" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="897" borderId="932" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="897" fontId="512" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="900" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="936" fillId="900" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="903" borderId="936" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="936" fillId="903" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="515" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="516" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="518" fillId="909" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="519" fillId="912" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="520" fillId="915" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="521" fillId="915" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="522" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="523" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="524" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="940" fillId="909" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="944" fillId="912" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="915" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="915" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="525" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="956" fillId="921" fontId="526" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="960" fillId="924" fontId="528" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="964" fillId="927" fontId="529" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="964" fillId="930" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="531" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="532" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="968" fillId="936" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="972" fillId="939" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="942" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="942" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="945" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="984" fillId="948" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="988" fillId="951" fontId="544" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="992" fillId="954" fontId="545" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="992" fillId="957" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="547" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="548" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="996" fillId="963" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1000" fillId="966" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="969" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="969" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="975" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="978" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="984" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="990" borderId="1024" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="993" borderId="1028" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="996" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="996" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="999" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23247,7 +25011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24115,7 +25879,7 @@
         <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>712</v>
       </c>
       <c r="V19" t="s">
         <v>189</v>
@@ -24132,7 +25896,7 @@
         <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>612</v>
+        <v>169</v>
       </c>
       <c r="V20" t="s">
         <v>192</v>
@@ -24149,7 +25913,7 @@
         <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>612</v>
       </c>
       <c r="V21" t="s">
         <v>195</v>
@@ -24166,7 +25930,7 @@
         <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>677</v>
+        <v>175</v>
       </c>
       <c r="V22" t="s">
         <v>198</v>
@@ -24183,7 +25947,7 @@
         <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>181</v>
+        <v>677</v>
       </c>
       <c r="V23" t="s">
         <v>201</v>
@@ -24200,7 +25964,7 @@
         <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="V24" t="s">
         <v>204</v>
@@ -24216,6 +25980,9 @@
       <c r="F25" t="s">
         <v>200</v>
       </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
       <c r="V25" t="s">
         <v>207</v>
       </c>
@@ -24250,7 +26017,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="F28" t="s">
         <v>209</v>
@@ -24261,7 +26028,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>196</v>
+        <v>711</v>
       </c>
       <c r="F29" t="s">
         <v>212</v>
@@ -24272,7 +26039,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>199</v>
+        <v>651</v>
       </c>
       <c r="F30" t="s">
         <v>215</v>
@@ -24283,7 +26050,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F31" t="s">
         <v>218</v>
@@ -24294,7 +26061,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
         <v>220</v>
@@ -24305,7 +26072,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
         <v>222</v>
@@ -24316,7 +26083,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
         <v>224</v>
@@ -24327,7 +26094,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F35" t="s">
         <v>226</v>
@@ -24338,7 +26105,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
         <v>228</v>
@@ -24348,6 +26115,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
       <c r="F37" t="s">
         <v>230</v>
       </c>
@@ -24356,6 +26126,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>217</v>
+      </c>
       <c r="F38" t="s">
         <v>232</v>
       </c>
@@ -24640,7 +26413,7 @@
         <v>302</v>
       </c>
       <c r="V73" t="s">
-        <v>289</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74">
@@ -24648,7 +26421,7 @@
         <v>304</v>
       </c>
       <c r="V74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75">
@@ -24656,7 +26429,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76">
@@ -24664,7 +26437,7 @@
         <v>308</v>
       </c>
       <c r="V76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77">
@@ -24672,7 +26445,7 @@
         <v>652</v>
       </c>
       <c r="V77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78">
@@ -24680,7 +26453,7 @@
         <v>310</v>
       </c>
       <c r="V78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79">
@@ -24688,7 +26461,7 @@
         <v>312</v>
       </c>
       <c r="V79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80">
@@ -24696,7 +26469,7 @@
         <v>314</v>
       </c>
       <c r="V80" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81">
@@ -24704,7 +26477,7 @@
         <v>316</v>
       </c>
       <c r="V81" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82">
@@ -24712,7 +26485,7 @@
         <v>318</v>
       </c>
       <c r="V82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83">
@@ -24720,7 +26493,7 @@
         <v>320</v>
       </c>
       <c r="V83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84">
@@ -24728,7 +26501,7 @@
         <v>322</v>
       </c>
       <c r="V84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85">
@@ -24736,7 +26509,7 @@
         <v>324</v>
       </c>
       <c r="V85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86">
@@ -24744,7 +26517,7 @@
         <v>326</v>
       </c>
       <c r="V86" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87">
@@ -24752,7 +26525,7 @@
         <v>328</v>
       </c>
       <c r="V87" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88">
@@ -24760,7 +26533,7 @@
         <v>330</v>
       </c>
       <c r="V88" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89">
@@ -24768,7 +26541,7 @@
         <v>332</v>
       </c>
       <c r="V89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90">
@@ -24776,7 +26549,7 @@
         <v>334</v>
       </c>
       <c r="V90" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91">
@@ -24784,7 +26557,7 @@
         <v>336</v>
       </c>
       <c r="V91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92">
@@ -24792,136 +26565,141 @@
         <v>338</v>
       </c>
       <c r="V92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -42,7 +42,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20195" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20678" uniqueCount="715">
   <si>
     <t>target</t>
   </si>
@@ -2230,13 +2230,19 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="574" x14ac:knownFonts="1">
+  <fonts count="590" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5851,8 +5857,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1000">
+  <fills count="1027">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11515,8 +11622,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1033">
+  <borders count="1061">
     <border>
       <left/>
       <right/>
@@ -21892,13 +22152,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="606">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -23687,52 +24229,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="975" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1012" fillId="975" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="978" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1016" fillId="978" fontId="560" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="981" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1020" fillId="981" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="984" borderId="1020" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1020" fillId="984" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="563" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="564" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="990" borderId="1024" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="993" borderId="1028" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="996" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="996" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="571" fillId="999" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1024" fillId="990" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1028" fillId="993" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1032" fillId="996" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1032" fillId="996" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="1002" borderId="1040" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="1005" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="1008" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="1011" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1017" borderId="1052" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1020" borderId="1056" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1023" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1023" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1011" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1011" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25668,7 +26258,7 @@
         <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="N11" t="s">
         <v>125</v>
@@ -25703,7 +26293,7 @@
         <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>678</v>
       </c>
       <c r="N12" t="s">
         <v>134</v>
@@ -25735,7 +26325,7 @@
         <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>714</v>
       </c>
       <c r="N13" t="s">
         <v>142</v>
@@ -25767,7 +26357,7 @@
         <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
         <v>150</v>
@@ -25795,6 +26385,9 @@
       <c r="J15" t="s">
         <v>695</v>
       </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
       <c r="N15" t="s">
         <v>157</v>
       </c>
@@ -25820,6 +26413,9 @@
       </c>
       <c r="J16" t="s">
         <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
       </c>
       <c r="O16" t="s">
         <v>176</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,11 +52,11 @@
     <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
     <definedName name="sms">'#system'!$R$2:$R$2</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20678" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21164" uniqueCount="718">
   <si>
     <t>target</t>
   </si>
@@ -2236,13 +2236,22 @@
   <si>
     <t>minify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="590" x14ac:knownFonts="1">
+  <fonts count="606" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5958,8 +5967,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1027">
+  <fills count="1054">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11775,8 +11885,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1061">
+  <borders count="1089">
     <border>
       <left/>
       <right/>
@@ -22434,13 +22697,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="622">
+  <cellXfs count="638">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -24277,52 +24822,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="1002" borderId="1040" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1040" fillId="1002" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="1005" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1044" fillId="1005" fontId="576" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="1008" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1048" fillId="1008" fontId="577" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="1011" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1048" fillId="1011" fontId="578" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="579" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="580" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="1017" borderId="1052" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="1020" borderId="1056" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="1023" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="1023" borderId="1060" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="1011" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="587" fillId="1026" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="1011" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1052" fillId="1017" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1056" fillId="1020" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1060" fillId="1023" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1060" fillId="1023" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1011" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1026" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1011" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1029" borderId="1068" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1032" borderId="1072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1035" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1038" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1044" borderId="1080" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1047" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1050" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1050" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25601,7 +26194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26200,7 +26793,7 @@
         <v>128</v>
       </c>
       <c r="AA9" t="s">
-        <v>129</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10">
@@ -26238,7 +26831,7 @@
         <v>137</v>
       </c>
       <c r="AA10" t="s">
-        <v>138</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11">
@@ -26273,7 +26866,7 @@
         <v>145</v>
       </c>
       <c r="AA11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -26307,6 +26900,9 @@
       <c r="Y12" t="s">
         <v>153</v>
       </c>
+      <c r="AA12" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -26339,6 +26935,9 @@
       <c r="Y13" t="s">
         <v>160</v>
       </c>
+      <c r="AA13" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -26929,7 +27528,7 @@
         <v>286</v>
       </c>
       <c r="V63" t="s">
-        <v>275</v>
+        <v>715</v>
       </c>
     </row>
     <row r="64">
@@ -26937,7 +27536,7 @@
         <v>288</v>
       </c>
       <c r="V64" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65">
@@ -26945,7 +27544,7 @@
         <v>290</v>
       </c>
       <c r="V65" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
@@ -26953,7 +27552,7 @@
         <v>292</v>
       </c>
       <c r="V66" t="s">
-        <v>277</v>
+        <v>680</v>
       </c>
     </row>
     <row r="67">
@@ -26961,7 +27560,7 @@
         <v>294</v>
       </c>
       <c r="V67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68">
@@ -26969,7 +27568,7 @@
         <v>296</v>
       </c>
       <c r="V68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69">
@@ -26977,7 +27576,7 @@
         <v>644</v>
       </c>
       <c r="V69" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70">
@@ -26985,7 +27584,7 @@
         <v>298</v>
       </c>
       <c r="V70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71">
@@ -26993,7 +27592,7 @@
         <v>645</v>
       </c>
       <c r="V71" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72">
@@ -27001,7 +27600,7 @@
         <v>300</v>
       </c>
       <c r="V72" t="s">
-        <v>693</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73">
@@ -27009,7 +27608,7 @@
         <v>302</v>
       </c>
       <c r="V73" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74">
@@ -27017,7 +27616,7 @@
         <v>304</v>
       </c>
       <c r="V74" t="s">
-        <v>289</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
@@ -27025,7 +27624,7 @@
         <v>306</v>
       </c>
       <c r="V75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76">
@@ -27033,7 +27632,7 @@
         <v>308</v>
       </c>
       <c r="V76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77">
@@ -27041,7 +27640,7 @@
         <v>652</v>
       </c>
       <c r="V77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78">
@@ -27049,7 +27648,7 @@
         <v>310</v>
       </c>
       <c r="V78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79">
@@ -27057,7 +27656,7 @@
         <v>312</v>
       </c>
       <c r="V79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80">
@@ -27065,7 +27664,7 @@
         <v>314</v>
       </c>
       <c r="V80" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81">
@@ -27073,7 +27672,7 @@
         <v>316</v>
       </c>
       <c r="V81" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82">
@@ -27081,7 +27680,7 @@
         <v>318</v>
       </c>
       <c r="V82" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83">
@@ -27089,7 +27688,7 @@
         <v>320</v>
       </c>
       <c r="V83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84">
@@ -27097,7 +27696,7 @@
         <v>322</v>
       </c>
       <c r="V84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85">
@@ -27105,7 +27704,7 @@
         <v>324</v>
       </c>
       <c r="V85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86">
@@ -27113,7 +27712,7 @@
         <v>326</v>
       </c>
       <c r="V86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87">
@@ -27121,7 +27720,7 @@
         <v>328</v>
       </c>
       <c r="V87" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88">
@@ -27129,7 +27728,7 @@
         <v>330</v>
       </c>
       <c r="V88" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89">
@@ -27137,7 +27736,7 @@
         <v>332</v>
       </c>
       <c r="V89" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90">
@@ -27145,7 +27744,7 @@
         <v>334</v>
       </c>
       <c r="V90" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91">
@@ -27153,7 +27752,7 @@
         <v>336</v>
       </c>
       <c r="V91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92">
@@ -27161,141 +27760,146 @@
         <v>338</v>
       </c>
       <c r="V92" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -38,38 +38,39 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21164" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21658" uniqueCount="727">
   <si>
     <t>target</t>
   </si>
@@ -2245,13 +2246,40 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="606" x14ac:knownFonts="1">
+  <fonts count="622" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6068,8 +6096,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1054">
+  <fills count="1081">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12038,8 +12167,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1089">
+  <borders count="1117">
     <border>
       <left/>
       <right/>
@@ -22979,13 +23261,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="654">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -24870,52 +25434,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1029" borderId="1068" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1068" fillId="1029" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1032" borderId="1072" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1072" fillId="1032" fontId="592" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1035" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="1035" fontId="593" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="1038" borderId="1076" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1076" fillId="1038" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="595" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="596" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="598" fillId="1044" borderId="1080" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="599" fillId="1047" borderId="1084" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="600" fillId="1050" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="601" fillId="1050" borderId="1088" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="602" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="603" fillId="1053" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1038" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1080" fillId="1044" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1084" fillId="1047" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1088" fillId="1050" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1088" fillId="1050" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="602" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1053" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1038" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1056" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1059" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1065" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1071" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1074" borderId="1112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1077" borderId="1116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1077" borderId="1116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26194,7 +26806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26243,48 +26855,51 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>634</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>647</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>648</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>630</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -26326,48 +26941,51 @@
         <v>653</v>
       </c>
       <c r="M2" t="s">
+        <v>721</v>
+      </c>
+      <c r="N2" t="s">
         <v>654</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>655</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>635</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>659</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>660</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>597</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>631</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>668</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -26394,7 +27012,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>719</v>
       </c>
       <c r="I3" t="s">
         <v>25</v>
@@ -26408,43 +27026,46 @@
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>722</v>
+      </c>
+      <c r="O3" t="s">
         <v>656</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>636</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>661</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>598</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>632</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -26467,6 +27088,9 @@
       <c r="G4" t="s">
         <v>689</v>
       </c>
+      <c r="H4" t="s">
+        <v>720</v>
+      </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
@@ -26479,43 +27103,46 @@
       <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>723</v>
+      </c>
+      <c r="O4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>637</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>662</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>31</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>633</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>67</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>669</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -26547,40 +27174,40 @@
       <c r="L5" t="s">
         <v>62</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>63</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>638</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>663</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>49</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>81</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>670</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -26609,37 +27236,37 @@
       <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>92</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>611</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>639</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>66</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>94</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>682</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>97</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>671</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -26665,37 +27292,37 @@
       <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>105</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>658</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>640</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>80</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>107</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>683</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>109</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>672</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -26721,34 +27348,34 @@
       <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>116</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>641</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>117</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>118</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>119</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>673</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -26774,25 +27401,25 @@
       <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>115</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>642</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>106</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>127</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>128</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>716</v>
       </c>
     </row>
@@ -26815,22 +27442,22 @@
       <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>657</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>135</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>643</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>136</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>137</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>717</v>
       </c>
     </row>
@@ -26853,19 +27480,19 @@
       <c r="L11" t="s">
         <v>713</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>125</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>143</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>144</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>145</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -26888,25 +27515,25 @@
       <c r="L12" t="s">
         <v>678</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>134</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>151</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>152</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>153</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>718</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -26923,25 +27550,25 @@
       <c r="L13" t="s">
         <v>714</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>142</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>158</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>159</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>160</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>147</v>
@@ -26958,22 +27585,22 @@
       <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>150</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>164</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>165</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>154</v>
@@ -26987,22 +27614,22 @@
       <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>157</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>170</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>171</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>605</v>
@@ -27016,19 +27643,19 @@
       <c r="L16" t="s">
         <v>141</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>176</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>177</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>606</v>
@@ -27039,16 +27666,16 @@
       <c r="J17" t="s">
         <v>163</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>182</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D18" t="s">
         <v>650</v>
@@ -27059,13 +27686,13 @@
       <c r="J18" t="s">
         <v>596</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D19" t="s">
         <v>161</v>
@@ -27076,13 +27703,13 @@
       <c r="J19" t="s">
         <v>712</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>648</v>
       </c>
       <c r="D20" t="s">
         <v>167</v>
@@ -27093,13 +27720,13 @@
       <c r="J20" t="s">
         <v>169</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>630</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>173</v>
@@ -27110,13 +27737,13 @@
       <c r="J21" t="s">
         <v>612</v>
       </c>
-      <c r="V21" t="s">
-        <v>195</v>
+      <c r="W21" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>630</v>
       </c>
       <c r="D22" t="s">
         <v>179</v>
@@ -27127,13 +27754,13 @@
       <c r="J22" t="s">
         <v>175</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>183</v>
@@ -27144,13 +27771,13 @@
       <c r="J23" t="s">
         <v>677</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>187</v>
@@ -27161,13 +27788,13 @@
       <c r="J24" t="s">
         <v>181</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>687</v>
@@ -27178,13 +27805,13 @@
       <c r="J25" t="s">
         <v>185</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>649</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>190</v>
@@ -27192,13 +27819,13 @@
       <c r="F26" t="s">
         <v>203</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>649</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -27206,18 +27833,21 @@
       <c r="F27" t="s">
         <v>206</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
       <c r="D28" t="s">
         <v>710</v>
       </c>
       <c r="F28" t="s">
         <v>209</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>216</v>
       </c>
     </row>
@@ -27228,7 +27858,7 @@
       <c r="F29" t="s">
         <v>212</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>219</v>
       </c>
     </row>
@@ -27239,7 +27869,7 @@
       <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>221</v>
       </c>
     </row>
@@ -27250,7 +27880,7 @@
       <c r="F31" t="s">
         <v>218</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>223</v>
       </c>
     </row>
@@ -27261,7 +27891,7 @@
       <c r="F32" t="s">
         <v>220</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>225</v>
       </c>
     </row>
@@ -27272,7 +27902,7 @@
       <c r="F33" t="s">
         <v>222</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>227</v>
       </c>
     </row>
@@ -27283,7 +27913,7 @@
       <c r="F34" t="s">
         <v>224</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27294,7 +27924,7 @@
       <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>231</v>
       </c>
     </row>
@@ -27305,7 +27935,7 @@
       <c r="F36" t="s">
         <v>228</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>233</v>
       </c>
     </row>
@@ -27316,7 +27946,7 @@
       <c r="F37" t="s">
         <v>230</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>664</v>
       </c>
     </row>
@@ -27327,7 +27957,7 @@
       <c r="F38" t="s">
         <v>232</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>613</v>
       </c>
     </row>
@@ -27335,7 +27965,7 @@
       <c r="F39" t="s">
         <v>234</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>235</v>
       </c>
     </row>
@@ -27343,7 +27973,7 @@
       <c r="F40" t="s">
         <v>236</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>237</v>
       </c>
     </row>
@@ -27351,7 +27981,7 @@
       <c r="F41" t="s">
         <v>238</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>239</v>
       </c>
     </row>
@@ -27359,7 +27989,7 @@
       <c r="F42" t="s">
         <v>240</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>241</v>
       </c>
     </row>
@@ -27367,7 +27997,7 @@
       <c r="F43" t="s">
         <v>242</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>243</v>
       </c>
     </row>
@@ -27375,7 +28005,7 @@
       <c r="F44" t="s">
         <v>244</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>245</v>
       </c>
     </row>
@@ -27383,7 +28013,7 @@
       <c r="F45" t="s">
         <v>246</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>679</v>
       </c>
     </row>
@@ -27391,7 +28021,7 @@
       <c r="F46" t="s">
         <v>248</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>247</v>
       </c>
     </row>
@@ -27399,7 +28029,7 @@
       <c r="F47" t="s">
         <v>250</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>249</v>
       </c>
     </row>
@@ -27407,7 +28037,7 @@
       <c r="F48" t="s">
         <v>252</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>251</v>
       </c>
     </row>
@@ -27415,7 +28045,7 @@
       <c r="F49" t="s">
         <v>254</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>253</v>
       </c>
     </row>
@@ -27423,7 +28053,7 @@
       <c r="F50" t="s">
         <v>256</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>255</v>
       </c>
     </row>
@@ -27431,475 +28061,485 @@
       <c r="F51" t="s">
         <v>258</v>
       </c>
-      <c r="V51" t="s">
-        <v>705</v>
+      <c r="W51" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>264</v>
       </c>
-      <c r="V52" t="s">
-        <v>257</v>
+      <c r="W52" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>266</v>
       </c>
-      <c r="V53" t="s">
-        <v>259</v>
+      <c r="W53" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>268</v>
       </c>
-      <c r="V54" t="s">
-        <v>698</v>
+      <c r="W54" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>270</v>
       </c>
-      <c r="V55" t="s">
-        <v>261</v>
+      <c r="W55" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>272</v>
       </c>
-      <c r="V56" t="s">
-        <v>263</v>
+      <c r="W56" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>274</v>
       </c>
-      <c r="V57" t="s">
-        <v>265</v>
+      <c r="W57" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>276</v>
       </c>
-      <c r="V58" t="s">
-        <v>267</v>
+      <c r="W58" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>278</v>
       </c>
-      <c r="V59" t="s">
-        <v>269</v>
+      <c r="W59" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>280</v>
       </c>
-      <c r="V60" t="s">
-        <v>271</v>
+      <c r="W60" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>282</v>
       </c>
-      <c r="V61" t="s">
-        <v>273</v>
+      <c r="W61" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>284</v>
       </c>
-      <c r="V62" t="s">
-        <v>675</v>
+      <c r="W62" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>286</v>
       </c>
-      <c r="V63" t="s">
-        <v>715</v>
+      <c r="W63" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>288</v>
       </c>
-      <c r="V64" t="s">
-        <v>275</v>
+      <c r="W64" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>290</v>
       </c>
-      <c r="V65" t="s">
-        <v>609</v>
+      <c r="W65" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>292</v>
       </c>
-      <c r="V66" t="s">
-        <v>680</v>
+      <c r="W66" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>294</v>
       </c>
-      <c r="V67" t="s">
-        <v>277</v>
+      <c r="W67" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>296</v>
       </c>
-      <c r="V68" t="s">
-        <v>279</v>
+      <c r="W68" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>644</v>
       </c>
-      <c r="V69" t="s">
-        <v>281</v>
+      <c r="W69" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>298</v>
       </c>
-      <c r="V70" t="s">
-        <v>283</v>
+      <c r="W70" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>645</v>
       </c>
-      <c r="V71" t="s">
-        <v>285</v>
+      <c r="W71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>300</v>
       </c>
-      <c r="V72" t="s">
-        <v>287</v>
+      <c r="W72" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>302</v>
       </c>
-      <c r="V73" t="s">
-        <v>693</v>
+      <c r="W73" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>304</v>
       </c>
-      <c r="V74" t="s">
-        <v>709</v>
+      <c r="W74" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>306</v>
       </c>
-      <c r="V75" t="s">
-        <v>289</v>
+      <c r="W75" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>308</v>
       </c>
-      <c r="V76" t="s">
-        <v>291</v>
+      <c r="W76" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>652</v>
       </c>
-      <c r="V77" t="s">
-        <v>293</v>
+      <c r="W77" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>310</v>
       </c>
-      <c r="V78" t="s">
-        <v>295</v>
+      <c r="W78" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>312</v>
       </c>
-      <c r="V79" t="s">
-        <v>297</v>
+      <c r="W79" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>314</v>
       </c>
-      <c r="V80" t="s">
-        <v>299</v>
+      <c r="W80" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>316</v>
       </c>
-      <c r="V81" t="s">
-        <v>301</v>
+      <c r="W81" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>318</v>
       </c>
-      <c r="V82" t="s">
-        <v>692</v>
+      <c r="W82" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>320</v>
       </c>
-      <c r="V83" t="s">
-        <v>303</v>
+      <c r="W83" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>322</v>
       </c>
-      <c r="V84" t="s">
-        <v>305</v>
+      <c r="W84" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>324</v>
       </c>
-      <c r="V85" t="s">
-        <v>307</v>
+      <c r="W85" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>326</v>
       </c>
-      <c r="V86" t="s">
-        <v>309</v>
+      <c r="W86" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>328</v>
       </c>
-      <c r="V87" t="s">
-        <v>311</v>
+      <c r="W87" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>330</v>
       </c>
-      <c r="V88" t="s">
-        <v>666</v>
+      <c r="W88" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>332</v>
       </c>
-      <c r="V89" t="s">
-        <v>674</v>
+      <c r="W89" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>334</v>
       </c>
-      <c r="V90" t="s">
-        <v>315</v>
+      <c r="W90" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>336</v>
       </c>
-      <c r="V91" t="s">
-        <v>317</v>
+      <c r="W91" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>338</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21658" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22152" uniqueCount="727">
   <si>
     <t>target</t>
   </si>
@@ -2279,7 +2279,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="622" x14ac:knownFonts="1">
+  <fonts count="638" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6197,8 +6197,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1081">
+  <fills count="1108">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12320,8 +12421,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1117">
+  <borders count="1145">
     <border>
       <left/>
       <right/>
@@ -23543,13 +23797,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="670">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -25482,52 +26018,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1056" borderId="1096" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1096" fillId="1056" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1059" borderId="1100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1100" fillId="1059" fontId="608" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1062" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1104" fillId="1062" fontId="609" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1065" borderId="1104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1104" fillId="1065" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="611" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="612" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="614" fillId="1071" borderId="1108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="615" fillId="1074" borderId="1112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="616" fillId="1077" borderId="1116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="617" fillId="1077" borderId="1116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="618" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="619" fillId="1080" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1065" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1108" fillId="1071" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1112" fillId="1074" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1116" fillId="1077" fontId="616" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1116" fillId="1077" fontId="617" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1080" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1065" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1083" borderId="1124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1086" borderId="1128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1089" borderId="1132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1092" borderId="1132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1098" borderId="1136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1101" borderId="1140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1104" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1104" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -32,45 +32,46 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22152" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23157" uniqueCount="737">
   <si>
     <t>target</t>
   </si>
@@ -2273,13 +2274,43 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="638" x14ac:knownFonts="1">
+  <fonts count="670" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6298,8 +6329,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1108">
+  <fills count="1162">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12574,8 +12807,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1145">
+  <borders count="1201">
     <border>
       <left/>
       <right/>
@@ -24079,13 +24618,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="670">
+  <cellXfs count="702">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -26066,52 +27169,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1083" borderId="1124" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1124" fillId="1083" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1086" borderId="1128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1128" fillId="1086" fontId="624" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1089" borderId="1132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1132" fillId="1089" fontId="625" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1092" borderId="1132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1132" fillId="1092" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="627" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="628" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="630" fillId="1098" borderId="1136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="631" fillId="1101" borderId="1140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="632" fillId="1104" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="633" fillId="1104" borderId="1144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="634" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="635" fillId="1107" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="636" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1136" fillId="1098" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1140" fillId="1101" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1144" fillId="1104" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1144" fillId="1104" fontId="633" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="634" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1107" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1152" fillId="1110" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1156" fillId="1113" fontId="640" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1160" fillId="1116" fontId="641" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1160" fillId="1119" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="643" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="644" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1164" fillId="1125" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1168" fillId="1128" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1172" fillId="1131" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1172" fillId="1131" fontId="649" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="650" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1134" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1137" borderId="1180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1140" borderId="1184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1146" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1152" borderId="1192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1155" borderId="1196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1158" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1158" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27390,7 +28589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27412,78 +28611,81 @@
         <v>699</v>
       </c>
       <c r="D1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>718</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>634</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>647</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>648</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>630</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>649</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -27498,79 +28700,82 @@
         <v>704</v>
       </c>
       <c r="D2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>688</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>708</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>604</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>653</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>721</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>654</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>655</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>635</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>659</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>660</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>597</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>631</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>668</v>
       </c>
-      <c r="AB2" t="s">
-        <v>36</v>
+      <c r="AC2" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="3">
@@ -27584,1546 +28789,1573 @@
         <v>701</v>
       </c>
       <c r="D3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E3" t="s">
         <v>696</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>719</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>722</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>656</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>636</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>661</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>598</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>632</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" t="s">
-        <v>54</v>
+      <c r="AC3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>727</v>
       </c>
       <c r="B4" t="s">
         <v>590</v>
       </c>
       <c r="D4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>607</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>689</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>720</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>723</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>65</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>637</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>662</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>31</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>633</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>67</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>69</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>669</v>
       </c>
-      <c r="AB4" t="s">
-        <v>71</v>
+      <c r="AC4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>591</v>
       </c>
       <c r="D5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E5" t="s">
         <v>697</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>676</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>694</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>702</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>79</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>638</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>663</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>49</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>81</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>83</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>670</v>
       </c>
-      <c r="AB5" t="s">
-        <v>85</v>
+      <c r="AC5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>592</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>608</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>686</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>611</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>639</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>66</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>94</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>682</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>671</v>
       </c>
-      <c r="AB6" t="s">
-        <v>98</v>
+      <c r="AC6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>593</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>73</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>685</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>658</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>640</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>80</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>107</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>683</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>108</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>109</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>672</v>
       </c>
-      <c r="AB7" t="s">
-        <v>110</v>
+      <c r="AC7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>594</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>86</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>104</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>116</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>641</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>117</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>119</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>673</v>
       </c>
-      <c r="AB8" t="s">
-        <v>120</v>
+      <c r="AC8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>595</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>103</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>115</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>126</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>642</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>106</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>127</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>128</v>
       </c>
-      <c r="AB9" t="s">
-        <v>716</v>
+      <c r="AC9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>690</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>610</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>114</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>657</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>135</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>643</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>136</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>137</v>
       </c>
-      <c r="AB10" t="s">
-        <v>717</v>
+      <c r="AC10" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>121</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>713</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>125</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>143</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>144</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>145</v>
       </c>
-      <c r="AB11" t="s">
-        <v>129</v>
+      <c r="AC11" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>130</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>88</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>132</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>678</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>134</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>151</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>152</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>153</v>
       </c>
-      <c r="AB12" t="s">
-        <v>138</v>
+      <c r="AC12" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>718</v>
-      </c>
-      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>139</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>140</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>714</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>142</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>158</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>159</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>160</v>
       </c>
-      <c r="AB13" t="s">
-        <v>146</v>
+      <c r="AC13" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+        <v>718</v>
+      </c>
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>148</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>149</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>124</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>150</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>164</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>165</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>166</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>154</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>695</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>133</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>157</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>170</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>171</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>172</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>605</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>162</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>156</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>141</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>176</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>177</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>178</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>606</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>168</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>163</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>182</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>703</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>634</v>
-      </c>
-      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>650</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>174</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>596</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>186</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>647</v>
-      </c>
-      <c r="D19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>180</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>712</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>648</v>
-      </c>
-      <c r="D20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E20" t="s">
         <v>167</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>184</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>169</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
+        <v>648</v>
+      </c>
+      <c r="E21" t="s">
         <v>173</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>612</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>630</v>
-      </c>
-      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
         <v>179</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>191</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>175</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
+        <v>630</v>
+      </c>
+      <c r="E23" t="s">
         <v>183</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>194</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>677</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>197</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>181</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
         <v>687</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>200</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>185</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
         <v>190</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>203</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>649</v>
-      </c>
-      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>206</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>649</v>
+      </c>
+      <c r="E28" t="s">
+        <v>710</v>
+      </c>
+      <c r="G28" t="s">
+        <v>209</v>
+      </c>
+      <c r="X28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>710</v>
-      </c>
-      <c r="F28" t="s">
-        <v>209</v>
-      </c>
-      <c r="W28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>711</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>212</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>651</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>196</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>218</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>199</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>220</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>222</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>205</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>224</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>208</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>226</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>211</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>228</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>214</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>230</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>217</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>232</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>234</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>236</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>238</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>240</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>242</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>244</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>246</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>248</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>250</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>252</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>254</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>256</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>258</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>264</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>266</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>268</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>270</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>272</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>274</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>276</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>278</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>280</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>282</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>284</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>286</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>288</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>290</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>292</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>294</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>296</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>644</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>298</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>645</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>300</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>302</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>304</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>306</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>308</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>652</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>310</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>312</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>314</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>316</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>318</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>320</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>322</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>324</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>326</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>328</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>330</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>332</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>334</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>336</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>338</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -52,11 +52,11 @@
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
     <definedName name="sms">'#system'!$T$2:$T$2</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23157" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23666" uniqueCount="741">
   <si>
     <t>target</t>
   </si>
@@ -2304,13 +2304,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="670" x14ac:knownFonts="1">
+  <fonts count="686" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6531,8 +6543,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1162">
+  <fills count="1189">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13113,8 +13226,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1201">
+  <borders count="1229">
     <border>
       <left/>
       <right/>
@@ -25182,13 +25448,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="702">
+  <cellXfs count="718">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -27265,52 +27813,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1137" borderId="1180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1180" fillId="1137" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1140" borderId="1184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1184" fillId="1140" fontId="656" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1143" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1188" fillId="1143" fontId="657" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1146" borderId="1188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1188" fillId="1146" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="659" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="660" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="1152" borderId="1192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="1155" borderId="1196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="664" fillId="1158" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="665" fillId="1158" borderId="1200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="666" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="667" fillId="1161" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="668" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1192" fillId="1152" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1196" fillId="1155" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1200" fillId="1158" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1200" fillId="1158" fontId="665" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="666" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1161" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1164" borderId="1208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1167" borderId="1212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1173" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1179" borderId="1220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1182" borderId="1224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1185" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1185" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28589,7 +29185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29361,7 +29957,7 @@
         <v>160</v>
       </c>
       <c r="AC13" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14">
@@ -29396,7 +29992,7 @@
         <v>166</v>
       </c>
       <c r="AC14" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15">
@@ -29428,7 +30024,7 @@
         <v>172</v>
       </c>
       <c r="AC15" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16">
@@ -29457,7 +30053,7 @@
         <v>178</v>
       </c>
       <c r="AC16" t="s">
-        <v>129</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17">
@@ -29480,7 +30076,7 @@
         <v>703</v>
       </c>
       <c r="AC17" t="s">
-        <v>138</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18">
@@ -29500,7 +30096,7 @@
         <v>186</v>
       </c>
       <c r="AC18" t="s">
-        <v>146</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19">
@@ -29519,6 +30115,9 @@
       <c r="X19" t="s">
         <v>189</v>
       </c>
+      <c r="AC19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -29536,6 +30135,9 @@
       <c r="X20" t="s">
         <v>192</v>
       </c>
+      <c r="AC20" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -29553,6 +30155,9 @@
       <c r="X21" t="s">
         <v>724</v>
       </c>
+      <c r="AC21" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -30102,7 +30707,7 @@
         <v>312</v>
       </c>
       <c r="X79" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80">
@@ -30110,7 +30715,7 @@
         <v>314</v>
       </c>
       <c r="X80" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81">
@@ -30118,7 +30723,7 @@
         <v>316</v>
       </c>
       <c r="X81" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82">
@@ -30126,7 +30731,7 @@
         <v>318</v>
       </c>
       <c r="X82" t="s">
-        <v>726</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83">
@@ -30134,7 +30739,7 @@
         <v>320</v>
       </c>
       <c r="X83" t="s">
-        <v>301</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84">
@@ -30142,7 +30747,7 @@
         <v>322</v>
       </c>
       <c r="X84" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85">
@@ -30150,7 +30755,7 @@
         <v>324</v>
       </c>
       <c r="X85" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86">
@@ -30158,7 +30763,7 @@
         <v>326</v>
       </c>
       <c r="X86" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87">
@@ -30166,7 +30771,7 @@
         <v>328</v>
       </c>
       <c r="X87" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88">
@@ -30174,7 +30779,7 @@
         <v>330</v>
       </c>
       <c r="X88" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89">
@@ -30182,7 +30787,7 @@
         <v>332</v>
       </c>
       <c r="X89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90">
@@ -30190,7 +30795,7 @@
         <v>334</v>
       </c>
       <c r="X90" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91">
@@ -30198,7 +30803,7 @@
         <v>336</v>
       </c>
       <c r="X91" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="92">
@@ -30206,156 +30811,161 @@
         <v>338</v>
       </c>
       <c r="X92" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -47,12 +47,12 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23666" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24687" uniqueCount="744">
   <si>
     <t>target</t>
   </si>
@@ -2316,13 +2316,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="686" x14ac:knownFonts="1">
+  <fonts count="718" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6644,8 +6653,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1189">
+  <fills count="1243">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13379,8 +13590,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1229">
+  <borders count="1285">
     <border>
       <left/>
       <right/>
@@ -25730,13 +26247,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="750">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -27861,52 +28942,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1164" borderId="1208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1208" fillId="1164" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1167" borderId="1212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1212" fillId="1167" fontId="672" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1170" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1216" fillId="1170" fontId="673" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1173" borderId="1216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1216" fillId="1173" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="675" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="676" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="1179" borderId="1220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="679" fillId="1182" borderId="1224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="680" fillId="1185" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="681" fillId="1185" borderId="1228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="682" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="683" fillId="1188" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1173" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1220" fillId="1179" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1224" fillId="1182" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1228" fillId="1185" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1228" fillId="1185" fontId="681" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="682" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1188" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1236" fillId="1191" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1240" fillId="1194" fontId="688" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1244" fillId="1197" fontId="689" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1244" fillId="1200" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="691" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="692" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1248" fillId="1206" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1252" fillId="1209" fontId="695" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1256" fillId="1212" fontId="696" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1256" fillId="1212" fontId="697" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="698" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1215" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1221" borderId="1268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1227" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="1233" borderId="1276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1236" borderId="1280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="1239" borderId="1284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1239" borderId="1284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29185,7 +30362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30012,7 +31189,7 @@
         <v>133</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>741</v>
       </c>
       <c r="Q15" t="s">
         <v>170</v>
@@ -30043,6 +31220,9 @@
       <c r="M16" t="s">
         <v>141</v>
       </c>
+      <c r="P16" t="s">
+        <v>742</v>
+      </c>
       <c r="Q16" t="s">
         <v>176</v>
       </c>
@@ -30070,7 +31250,7 @@
         <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>743</v>
       </c>
       <c r="AA17" t="s">
         <v>703</v>
@@ -30093,7 +31273,7 @@
         <v>596</v>
       </c>
       <c r="X18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC18" t="s">
         <v>740</v>
@@ -30113,7 +31293,7 @@
         <v>712</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AC19" t="s">
         <v>129</v>
@@ -30133,7 +31313,7 @@
         <v>169</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AC20" t="s">
         <v>138</v>
@@ -30153,7 +31333,7 @@
         <v>612</v>
       </c>
       <c r="X21" t="s">
-        <v>724</v>
+        <v>192</v>
       </c>
       <c r="AC21" t="s">
         <v>146</v>
@@ -30173,7 +31353,7 @@
         <v>175</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23">
@@ -30190,7 +31370,7 @@
         <v>677</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
@@ -30207,7 +31387,7 @@
         <v>181</v>
       </c>
       <c r="X24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -30224,7 +31404,7 @@
         <v>185</v>
       </c>
       <c r="X25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
@@ -30238,7 +31418,7 @@
         <v>203</v>
       </c>
       <c r="X26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
@@ -30252,7 +31432,7 @@
         <v>206</v>
       </c>
       <c r="X27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -30266,7 +31446,7 @@
         <v>209</v>
       </c>
       <c r="X28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -30280,7 +31460,7 @@
         <v>212</v>
       </c>
       <c r="X29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -30291,7 +31471,7 @@
         <v>215</v>
       </c>
       <c r="X30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
@@ -30302,7 +31482,7 @@
         <v>218</v>
       </c>
       <c r="X31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32">
@@ -30313,7 +31493,7 @@
         <v>220</v>
       </c>
       <c r="X32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
@@ -30324,7 +31504,7 @@
         <v>222</v>
       </c>
       <c r="X33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
@@ -30335,7 +31515,7 @@
         <v>224</v>
       </c>
       <c r="X34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35">
@@ -30346,7 +31526,7 @@
         <v>226</v>
       </c>
       <c r="X35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36">
@@ -30357,7 +31537,7 @@
         <v>228</v>
       </c>
       <c r="X36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37">
@@ -30368,7 +31548,7 @@
         <v>230</v>
       </c>
       <c r="X37" t="s">
-        <v>664</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -30379,7 +31559,7 @@
         <v>232</v>
       </c>
       <c r="X38" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39">
@@ -30387,7 +31567,7 @@
         <v>234</v>
       </c>
       <c r="X39" t="s">
-        <v>235</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40">
@@ -30395,7 +31575,7 @@
         <v>236</v>
       </c>
       <c r="X40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
@@ -30403,7 +31583,7 @@
         <v>238</v>
       </c>
       <c r="X41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
@@ -30411,7 +31591,7 @@
         <v>240</v>
       </c>
       <c r="X42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -30419,7 +31599,7 @@
         <v>242</v>
       </c>
       <c r="X43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
@@ -30427,7 +31607,7 @@
         <v>244</v>
       </c>
       <c r="X44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
@@ -30435,7 +31615,7 @@
         <v>246</v>
       </c>
       <c r="X45" t="s">
-        <v>679</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
@@ -30443,7 +31623,7 @@
         <v>248</v>
       </c>
       <c r="X46" t="s">
-        <v>247</v>
+        <v>679</v>
       </c>
     </row>
     <row r="47">
@@ -30451,7 +31631,7 @@
         <v>250</v>
       </c>
       <c r="X47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48">
@@ -30459,7 +31639,7 @@
         <v>252</v>
       </c>
       <c r="X48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49">
@@ -30467,7 +31647,7 @@
         <v>254</v>
       </c>
       <c r="X49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50">
@@ -30475,7 +31655,7 @@
         <v>256</v>
       </c>
       <c r="X50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51">
@@ -30483,7 +31663,7 @@
         <v>258</v>
       </c>
       <c r="X51" t="s">
-        <v>725</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52">
@@ -30491,7 +31671,7 @@
         <v>264</v>
       </c>
       <c r="X52" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53">
@@ -30499,7 +31679,7 @@
         <v>266</v>
       </c>
       <c r="X53" t="s">
-        <v>257</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54">
@@ -30507,7 +31687,7 @@
         <v>268</v>
       </c>
       <c r="X54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55">
@@ -30515,7 +31695,7 @@
         <v>270</v>
       </c>
       <c r="X55" t="s">
-        <v>698</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56">
@@ -30523,7 +31703,7 @@
         <v>272</v>
       </c>
       <c r="X56" t="s">
-        <v>261</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57">
@@ -30531,7 +31711,7 @@
         <v>274</v>
       </c>
       <c r="X57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
@@ -30539,7 +31719,7 @@
         <v>276</v>
       </c>
       <c r="X58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59">
@@ -30547,7 +31727,7 @@
         <v>278</v>
       </c>
       <c r="X59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60">
@@ -30555,7 +31735,7 @@
         <v>280</v>
       </c>
       <c r="X60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61">
@@ -30563,7 +31743,7 @@
         <v>282</v>
       </c>
       <c r="X61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62">
@@ -30571,7 +31751,7 @@
         <v>284</v>
       </c>
       <c r="X62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63">
@@ -30579,7 +31759,7 @@
         <v>286</v>
       </c>
       <c r="X63" t="s">
-        <v>675</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64">
@@ -30587,7 +31767,7 @@
         <v>288</v>
       </c>
       <c r="X64" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65">
@@ -30595,7 +31775,7 @@
         <v>290</v>
       </c>
       <c r="X65" t="s">
-        <v>275</v>
+        <v>715</v>
       </c>
     </row>
     <row r="66">
@@ -30603,7 +31783,7 @@
         <v>292</v>
       </c>
       <c r="X66" t="s">
-        <v>609</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67">
@@ -30611,7 +31791,7 @@
         <v>294</v>
       </c>
       <c r="X67" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68">
@@ -30619,7 +31799,7 @@
         <v>296</v>
       </c>
       <c r="X68" t="s">
-        <v>277</v>
+        <v>680</v>
       </c>
     </row>
     <row r="69">
@@ -30627,7 +31807,7 @@
         <v>644</v>
       </c>
       <c r="X69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70">
@@ -30635,7 +31815,7 @@
         <v>298</v>
       </c>
       <c r="X70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71">
@@ -30643,7 +31823,7 @@
         <v>645</v>
       </c>
       <c r="X71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72">
@@ -30651,7 +31831,7 @@
         <v>300</v>
       </c>
       <c r="X72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73">
@@ -30659,7 +31839,7 @@
         <v>302</v>
       </c>
       <c r="X73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74">
@@ -30667,7 +31847,7 @@
         <v>304</v>
       </c>
       <c r="X74" t="s">
-        <v>693</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75">
@@ -30675,7 +31855,7 @@
         <v>306</v>
       </c>
       <c r="X75" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="76">
@@ -30683,7 +31863,7 @@
         <v>308</v>
       </c>
       <c r="X76" t="s">
-        <v>289</v>
+        <v>709</v>
       </c>
     </row>
     <row r="77">
@@ -30691,7 +31871,7 @@
         <v>652</v>
       </c>
       <c r="X77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78">
@@ -30699,7 +31879,7 @@
         <v>310</v>
       </c>
       <c r="X78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79">
@@ -30707,7 +31887,7 @@
         <v>312</v>
       </c>
       <c r="X79" t="s">
-        <v>737</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80">
@@ -30715,7 +31895,7 @@
         <v>314</v>
       </c>
       <c r="X80" t="s">
-        <v>295</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81">
@@ -30723,7 +31903,7 @@
         <v>316</v>
       </c>
       <c r="X81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
@@ -30731,7 +31911,7 @@
         <v>318</v>
       </c>
       <c r="X82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -30739,7 +31919,7 @@
         <v>320</v>
       </c>
       <c r="X83" t="s">
-        <v>726</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84">
@@ -30747,7 +31927,7 @@
         <v>322</v>
       </c>
       <c r="X84" t="s">
-        <v>301</v>
+        <v>726</v>
       </c>
     </row>
     <row r="85">
@@ -30755,7 +31935,7 @@
         <v>324</v>
       </c>
       <c r="X85" t="s">
-        <v>692</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86">
@@ -30763,7 +31943,7 @@
         <v>326</v>
       </c>
       <c r="X86" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87">
@@ -30771,7 +31951,7 @@
         <v>328</v>
       </c>
       <c r="X87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88">
@@ -30779,7 +31959,7 @@
         <v>330</v>
       </c>
       <c r="X88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89">
@@ -30787,7 +31967,7 @@
         <v>332</v>
       </c>
       <c r="X89" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90">
@@ -30795,7 +31975,7 @@
         <v>334</v>
       </c>
       <c r="X90" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91">
@@ -30803,7 +31983,7 @@
         <v>336</v>
       </c>
       <c r="X91" t="s">
-        <v>666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92">
@@ -30811,161 +31991,166 @@
         <v>338</v>
       </c>
       <c r="X92" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -33,14 +33,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24687" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25203" uniqueCount="749">
   <si>
     <t>target</t>
   </si>
@@ -2325,13 +2325,28 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="718" x14ac:knownFonts="1">
+  <fonts count="734" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6855,8 +6870,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1243">
+  <fills count="1270">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13896,8 +14012,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1285">
+  <borders count="1313">
     <border>
       <left/>
       <right/>
@@ -26811,13 +27080,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="750">
+  <cellXfs count="766">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -29038,52 +29589,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="701" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1264" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1264" fillId="1218" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1221" borderId="1268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1268" fillId="1221" fontId="704" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1224" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1272" fillId="1224" fontId="705" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1227" borderId="1272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1272" fillId="1227" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="707" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="708" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="710" fillId="1233" borderId="1276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="711" fillId="1236" borderId="1280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="712" fillId="1239" borderId="1284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="713" fillId="1239" borderId="1284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="714" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="1242" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1276" fillId="1233" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1280" fillId="1236" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1284" fillId="1239" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1284" fillId="1239" fontId="713" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1242" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="1245" borderId="1292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1248" borderId="1296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1251" borderId="1300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1254" borderId="1300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1260" borderId="1304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1263" borderId="1308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1266" borderId="1312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1266" borderId="1312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30362,7 +30961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30792,6 +31391,9 @@
       <c r="E6" t="s">
         <v>55</v>
       </c>
+      <c r="F6" t="s">
+        <v>744</v>
+      </c>
       <c r="G6" t="s">
         <v>608</v>
       </c>
@@ -30914,7 +31516,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>745</v>
       </c>
       <c r="M8" t="s">
         <v>90</v>
@@ -30967,7 +31569,7 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
         <v>103</v>
@@ -31008,7 +31610,7 @@
         <v>690</v>
       </c>
       <c r="K10" t="s">
-        <v>610</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
         <v>114</v>
@@ -31046,7 +31648,7 @@
         <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>746</v>
       </c>
       <c r="M11" t="s">
         <v>713</v>
@@ -31081,7 +31683,7 @@
         <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>610</v>
       </c>
       <c r="M12" t="s">
         <v>678</v>
@@ -31116,7 +31718,7 @@
         <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
         <v>714</v>
@@ -31151,7 +31753,7 @@
         <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s">
         <v>124</v>
@@ -31183,7 +31785,7 @@
         <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="M15" t="s">
         <v>133</v>
@@ -31215,7 +31817,7 @@
         <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s">
         <v>141</v>
@@ -31247,7 +31849,7 @@
         <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="X17" t="s">
         <v>743</v>
@@ -31270,7 +31872,7 @@
         <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="X18" t="s">
         <v>182</v>
@@ -31290,7 +31892,7 @@
         <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>712</v>
+        <v>156</v>
       </c>
       <c r="X19" t="s">
         <v>186</v>
@@ -31310,7 +31912,7 @@
         <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="X20" t="s">
         <v>189</v>
@@ -31330,7 +31932,7 @@
         <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="X21" t="s">
         <v>192</v>
@@ -31350,7 +31952,7 @@
         <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>712</v>
       </c>
       <c r="X22" t="s">
         <v>724</v>
@@ -31367,7 +31969,7 @@
         <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>677</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s">
         <v>198</v>
@@ -31384,7 +31986,7 @@
         <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>612</v>
       </c>
       <c r="X24" t="s">
         <v>201</v>
@@ -31401,7 +32003,7 @@
         <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="X25" t="s">
         <v>204</v>
@@ -31417,6 +32019,9 @@
       <c r="G26" t="s">
         <v>203</v>
       </c>
+      <c r="K26" t="s">
+        <v>677</v>
+      </c>
       <c r="X26" t="s">
         <v>207</v>
       </c>
@@ -31431,6 +32036,9 @@
       <c r="G27" t="s">
         <v>206</v>
       </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
       <c r="X27" t="s">
         <v>210</v>
       </c>
@@ -31445,6 +32053,9 @@
       <c r="G28" t="s">
         <v>209</v>
       </c>
+      <c r="K28" t="s">
+        <v>185</v>
+      </c>
       <c r="X28" t="s">
         <v>213</v>
       </c>
@@ -32031,126 +32642,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>327</v>
+        <v>748</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>600</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>329</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>681</v>
+        <v>346</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>347</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>355</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -36,7 +36,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25203" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25721" uniqueCount="751">
   <si>
     <t>target</t>
   </si>
@@ -2340,13 +2340,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="734" x14ac:knownFonts="1">
+  <fonts count="750" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6971,8 +6977,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1270">
+  <fills count="1297">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14165,8 +14272,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1313">
+  <borders count="1341">
     <border>
       <left/>
       <right/>
@@ -27362,13 +27622,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="766">
+  <cellXfs count="782">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -29637,52 +30179,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="717" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="1245" borderId="1292" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1292" fillId="1245" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1248" borderId="1296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1296" fillId="1248" fontId="720" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1251" borderId="1300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1300" fillId="1251" fontId="721" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1254" borderId="1300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1300" fillId="1254" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="723" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="724" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="726" fillId="1260" borderId="1304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="727" fillId="1263" borderId="1308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="728" fillId="1266" borderId="1312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="729" fillId="1266" borderId="1312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="730" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="1254" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="725" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1304" fillId="1260" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1308" fillId="1263" fontId="727" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1312" fillId="1266" fontId="728" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1312" fillId="1266" fontId="729" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="730" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="731" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="732" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="733" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1272" borderId="1320" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1275" borderId="1324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1278" borderId="1328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1281" borderId="1328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1287" borderId="1332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1290" borderId="1336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="1293" borderId="1340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1293" borderId="1340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32112,7 +32702,7 @@
         <v>202</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>749</v>
       </c>
       <c r="X33" t="s">
         <v>225</v>
@@ -32123,7 +32713,7 @@
         <v>205</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X34" t="s">
         <v>227</v>
@@ -32134,7 +32724,7 @@
         <v>208</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X35" t="s">
         <v>229</v>
@@ -32145,7 +32735,7 @@
         <v>211</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X36" t="s">
         <v>231</v>
@@ -32156,7 +32746,7 @@
         <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X37" t="s">
         <v>233</v>
@@ -32167,7 +32757,7 @@
         <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X38" t="s">
         <v>664</v>
@@ -32175,7 +32765,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="X39" t="s">
         <v>613</v>
@@ -32183,7 +32773,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s">
         <v>235</v>
@@ -32191,7 +32781,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s">
         <v>237</v>
@@ -32199,7 +32789,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s">
         <v>239</v>
@@ -32207,7 +32797,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="X43" t="s">
         <v>241</v>
@@ -32215,7 +32805,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="X44" t="s">
         <v>243</v>
@@ -32223,7 +32813,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X45" t="s">
         <v>245</v>
@@ -32231,7 +32821,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X46" t="s">
         <v>679</v>
@@ -32239,7 +32829,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X47" t="s">
         <v>247</v>
@@ -32247,7 +32837,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X48" t="s">
         <v>249</v>
@@ -32255,7 +32845,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X49" t="s">
         <v>251</v>
@@ -32263,7 +32853,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X50" t="s">
         <v>253</v>
@@ -32271,7 +32861,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="X51" t="s">
         <v>255</v>
@@ -32279,7 +32869,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="X52" t="s">
         <v>725</v>
@@ -32287,7 +32877,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X53" t="s">
         <v>705</v>
@@ -32295,7 +32885,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X54" t="s">
         <v>257</v>
@@ -32303,7 +32893,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X55" t="s">
         <v>259</v>
@@ -32311,7 +32901,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X56" t="s">
         <v>698</v>
@@ -32319,7 +32909,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="X57" t="s">
         <v>261</v>
@@ -32327,7 +32917,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X58" t="s">
         <v>263</v>
@@ -32335,7 +32925,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="X59" t="s">
         <v>265</v>
@@ -32343,7 +32933,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="X60" t="s">
         <v>267</v>
@@ -32351,7 +32941,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X61" t="s">
         <v>269</v>
@@ -32359,7 +32949,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X62" t="s">
         <v>271</v>
@@ -32367,7 +32957,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X63" t="s">
         <v>273</v>
@@ -32375,7 +32965,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X64" t="s">
         <v>675</v>
@@ -32383,7 +32973,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X65" t="s">
         <v>715</v>
@@ -32391,7 +32981,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="X66" t="s">
         <v>275</v>
@@ -32399,7 +32989,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="X67" t="s">
         <v>609</v>
@@ -32407,7 +32997,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="X68" t="s">
         <v>680</v>
@@ -32415,7 +33005,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>644</v>
+        <v>296</v>
       </c>
       <c r="X69" t="s">
         <v>277</v>
@@ -32423,7 +33013,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>298</v>
+        <v>644</v>
       </c>
       <c r="X70" t="s">
         <v>279</v>
@@ -32431,7 +33021,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>645</v>
+        <v>298</v>
       </c>
       <c r="X71" t="s">
         <v>281</v>
@@ -32439,7 +33029,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>300</v>
+        <v>645</v>
       </c>
       <c r="X72" t="s">
         <v>283</v>
@@ -32447,7 +33037,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="X73" t="s">
         <v>285</v>
@@ -32455,7 +33045,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>304</v>
+        <v>750</v>
       </c>
       <c r="X74" t="s">
         <v>287</v>
@@ -32463,7 +33053,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="X75" t="s">
         <v>693</v>
@@ -32471,7 +33061,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="X76" t="s">
         <v>709</v>
@@ -32479,7 +33069,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>652</v>
+        <v>306</v>
       </c>
       <c r="X77" t="s">
         <v>289</v>
@@ -32487,7 +33077,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="X78" t="s">
         <v>291</v>
@@ -32495,7 +33085,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>312</v>
+        <v>652</v>
       </c>
       <c r="X79" t="s">
         <v>293</v>
@@ -32503,7 +33093,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="X80" t="s">
         <v>737</v>
@@ -32511,7 +33101,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="X81" t="s">
         <v>295</v>
@@ -32519,7 +33109,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="X82" t="s">
         <v>297</v>
@@ -32527,7 +33117,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="X83" t="s">
         <v>299</v>
@@ -32535,7 +33125,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="X84" t="s">
         <v>726</v>
@@ -32543,7 +33133,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="X85" t="s">
         <v>301</v>
@@ -32551,7 +33141,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="X86" t="s">
         <v>692</v>
@@ -32559,7 +33149,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="X87" t="s">
         <v>303</v>
@@ -32567,7 +33157,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="X88" t="s">
         <v>305</v>
@@ -32575,7 +33165,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="X89" t="s">
         <v>307</v>
@@ -32583,7 +33173,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="X90" t="s">
         <v>309</v>
@@ -32591,7 +33181,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="X91" t="s">
         <v>311</v>
@@ -32599,18 +33189,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="X92" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>336</v>
+      </c>
       <c r="X93" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>338</v>
+      </c>
       <c r="X94" t="s">
         <v>315</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10502"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1348E2-F5B1-5947-AA29-C296510B2B2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EC1348E2-F5B1-5947-AA29-C296510B2B2E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="16220" windowWidth="25600" windowHeight="15780" tabRatio="420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="420" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="AssertElement" sheetId="2" r:id="rId2"/>
-    <sheet name="WindowDialog" sheetId="5" r:id="rId3"/>
-    <sheet name="AlertWindowPopUp" sheetId="19" r:id="rId4"/>
-    <sheet name="BoundaryElements" sheetId="8" r:id="rId5"/>
-    <sheet name="LocalStorage" sheetId="10" r:id="rId6"/>
-    <sheet name="Scroll" sheetId="11" r:id="rId7"/>
-    <sheet name="SelectMultiOption" sheetId="12" r:id="rId8"/>
-    <sheet name="ElementsOnResponsivePages" sheetId="16" r:id="rId9"/>
-    <sheet name="AssertingAttributes" sheetId="17" r:id="rId10"/>
-    <sheet name="SaveText" sheetId="13" r:id="rId11"/>
-    <sheet name="Frame" sheetId="18" r:id="rId12"/>
-    <sheet name="CheckBox" sheetId="14" r:id="rId13"/>
-    <sheet name="SavePartialText" sheetId="20" r:id="rId14"/>
-    <sheet name="DoubleClick" sheetId="22" r:id="rId15"/>
-    <sheet name="MouseOver" sheetId="23" r:id="rId16"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="AssertElement" r:id="rId2" sheetId="2"/>
+    <sheet name="WindowDialog" r:id="rId3" sheetId="5"/>
+    <sheet name="AlertWindowPopUp" r:id="rId4" sheetId="19"/>
+    <sheet name="BoundaryElements" r:id="rId5" sheetId="8"/>
+    <sheet name="LocalStorage" r:id="rId6" sheetId="10"/>
+    <sheet name="Scroll" r:id="rId7" sheetId="11"/>
+    <sheet name="SelectMultiOption" r:id="rId8" sheetId="12"/>
+    <sheet name="ElementsOnResponsivePages" r:id="rId9" sheetId="16"/>
+    <sheet name="AssertingAttributes" r:id="rId10" sheetId="17"/>
+    <sheet name="SaveText" r:id="rId11" sheetId="13"/>
+    <sheet name="Frame" r:id="rId12" sheetId="18"/>
+    <sheet name="CheckBox" r:id="rId13" sheetId="14"/>
+    <sheet name="SavePartialText" r:id="rId14" sheetId="20"/>
+    <sheet name="DoubleClick" r:id="rId15" sheetId="22"/>
+    <sheet name="MouseOver" r:id="rId16" sheetId="23"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -45,26 +45,27 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="744">
   <si>
     <t>target</t>
   </si>
@@ -2302,12 +2303,34 @@
   <si>
     <t>15</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2384,8 +2407,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2410,8 +2534,178 @@
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2511,189 +2805,519 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="99">
@@ -3688,7 +4312,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3713,10 +4337,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3880,21 +4504,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3911,7 +4535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3965,19 +4589,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4018,55 +4642,58 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1" t="s">
         <v>698</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>622</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>634</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>635</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>618</v>
       </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
       <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>636</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>577</v>
       </c>
@@ -4107,55 +4734,58 @@
         <v>640</v>
       </c>
       <c r="N2" t="s">
+        <v>738</v>
+      </c>
+      <c r="O2" t="s">
         <v>701</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>641</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>642</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>623</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>646</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>647</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>587</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>619</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>653</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>682</v>
       </c>
@@ -4196,49 +4826,52 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
+        <v>739</v>
+      </c>
+      <c r="O3" t="s">
         <v>702</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>643</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>46</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>624</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>648</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>588</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>620</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>51</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>707</v>
       </c>
@@ -4276,49 +4909,52 @@
         <v>43</v>
       </c>
       <c r="N4" t="s">
+        <v>740</v>
+      </c>
+      <c r="O4" t="s">
         <v>703</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>62</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>63</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>625</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>649</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>621</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>654</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4349,44 +4985,47 @@
       <c r="M5" t="s">
         <v>60</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q5" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>76</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>77</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>626</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>650</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>47</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>655</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4414,41 +5053,44 @@
       <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q6" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>600</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>627</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>64</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>667</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>95</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>656</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4470,41 +5112,44 @@
       <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q7" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>103</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>645</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>628</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>78</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>105</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>668</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>106</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>107</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>657</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4526,38 +5171,38 @@
       <c r="M8" t="s">
         <v>88</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>114</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>629</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>91</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>116</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>117</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>658</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4579,29 +5224,29 @@
       <c r="M9" t="s">
         <v>101</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>124</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>630</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>104</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>126</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4620,26 +5265,26 @@
       <c r="M10" t="s">
         <v>112</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>644</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>133</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>631</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>134</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>135</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4658,23 +5303,23 @@
       <c r="M11" t="s">
         <v>693</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>123</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>141</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>142</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>143</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4693,23 +5338,23 @@
       <c r="M12" t="s">
         <v>663</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>132</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>149</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>150</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>151</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4728,25 +5373,25 @@
       <c r="M13" t="s">
         <v>694</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>140</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>155</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>156</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>157</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="E14" t="s">
         <v>145</v>
@@ -4763,25 +5408,25 @@
       <c r="M14" t="s">
         <v>122</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>148</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>161</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>162</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>163</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>698</v>
       </c>
       <c r="E15" t="s">
         <v>152</v>
@@ -4795,25 +5440,25 @@
       <c r="M15" t="s">
         <v>131</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>721</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>167</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>168</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>169</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>594</v>
@@ -4827,25 +5472,25 @@
       <c r="M16" t="s">
         <v>139</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>722</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>173</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>174</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>175</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>595</v>
@@ -4856,19 +5501,19 @@
       <c r="K17" t="s">
         <v>147</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>723</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>685</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>637</v>
@@ -4879,16 +5524,16 @@
       <c r="K18" t="s">
         <v>678</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>179</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>622</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>158</v>
@@ -4899,16 +5544,16 @@
       <c r="K19" t="s">
         <v>154</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>183</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E20" t="s">
         <v>164</v>
@@ -4919,16 +5564,16 @@
       <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>186</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E21" t="s">
         <v>170</v>
@@ -4939,16 +5584,16 @@
       <c r="K21" t="s">
         <v>586</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>189</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>635</v>
       </c>
       <c r="E22" t="s">
         <v>176</v>
@@ -4959,13 +5604,13 @@
       <c r="K22" t="s">
         <v>692</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>618</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>180</v>
@@ -4976,13 +5621,13 @@
       <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>618</v>
       </c>
       <c r="E24" t="s">
         <v>184</v>
@@ -4993,13 +5638,13 @@
       <c r="K24" t="s">
         <v>601</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>671</v>
@@ -5010,13 +5655,13 @@
       <c r="K25" t="s">
         <v>172</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>187</v>
@@ -5027,13 +5672,13 @@
       <c r="K26" t="s">
         <v>662</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>190</v>
@@ -5044,13 +5689,13 @@
       <c r="K27" t="s">
         <v>178</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
-        <v>636</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>690</v>
@@ -5061,13 +5706,13 @@
       <c r="K28" t="s">
         <v>182</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>636</v>
       </c>
       <c r="E29" t="s">
         <v>691</v>
@@ -5075,754 +5720,757 @@
       <c r="G29" t="s">
         <v>208</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
       <c r="E30" t="s">
         <v>638</v>
       </c>
       <c r="G30" t="s">
         <v>211</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>192</v>
       </c>
       <c r="G31" t="s">
         <v>214</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>195</v>
       </c>
       <c r="G32" t="s">
         <v>216</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>198</v>
       </c>
       <c r="G33" t="s">
         <v>729</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>201</v>
       </c>
       <c r="G34" t="s">
         <v>218</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>204</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>207</v>
       </c>
       <c r="G36" t="s">
         <v>222</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>210</v>
       </c>
       <c r="G37" t="s">
         <v>224</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>213</v>
       </c>
       <c r="G38" t="s">
         <v>226</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="39" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>228</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="40" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>230</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>232</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>234</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>236</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>238</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>240</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>242</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="47" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>244</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>246</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>248</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>250</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>252</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="53" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>258</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="54" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>260</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>262</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>264</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="57" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>266</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>268</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>270</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>272</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>274</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>276</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>278</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>280</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>282</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>284</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>286</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>288</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="69" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>290</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>632</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>292</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>633</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="73" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>294</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>730</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="76" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>298</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="77" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>300</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>302</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>639</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="80" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>304</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="81" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>306</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>307</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>309</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>311</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="85" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>313</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>315</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="87" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>317</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>319</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>321</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="90" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>323</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>325</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>327</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>329</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="94" spans="7:24" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>331</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="95" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="X95" t="s">
+    <row r="95">
+      <c r="Y95" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="7:24" x14ac:dyDescent="0.2">
-      <c r="X96" t="s">
+    <row r="96">
+      <c r="Y96" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X97" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X98" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="99" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X99" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X100" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="101" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X101" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="102" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X102" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X103" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="104" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X104" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="105" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X106" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X107" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X108" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X109" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="110" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X110" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="111" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X111" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X112" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X113" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="114" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X114" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="115" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X115" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="116" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X116" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="117" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X117" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="118" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X118" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="119" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X119" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="120" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X120" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X121" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="122" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X122" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X123" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X124" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X125" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="126" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X126" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="24:24" x14ac:dyDescent="0.2">
-      <c r="X127" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="72.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="34.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="39.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="72.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="8.6640625" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -5852,7 +6500,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -5872,7 +6520,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -5882,7 +6530,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -5927,7 +6575,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>525</v>
       </c>
@@ -5954,7 +6602,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -5979,7 +6627,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -6002,7 +6650,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -6025,7 +6673,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -6050,7 +6698,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
@@ -6077,7 +6725,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
@@ -6102,7 +6750,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
@@ -6127,7 +6775,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
@@ -6152,7 +6800,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
@@ -6175,7 +6823,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
@@ -6202,7 +6850,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
@@ -6227,7 +6875,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
@@ -6252,7 +6900,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
@@ -6277,7 +6925,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
@@ -6302,7 +6950,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="24"/>
       <c r="C20" s="2" t="s">
@@ -6327,7 +6975,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
@@ -6352,7 +7000,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
@@ -6387,56 +7035,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="23" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="22" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="21" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22" type="list" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C22" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C22" type="list" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="49" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="49.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="8.6640625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -6466,7 +7114,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -6486,7 +7134,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -6496,7 +7144,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -6541,7 +7189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>541</v>
       </c>
@@ -6570,7 +7218,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -6593,7 +7241,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -6616,7 +7264,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -6641,7 +7289,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -6670,7 +7318,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
@@ -6697,7 +7345,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11"/>
       <c r="C11" s="2" t="s">
@@ -6724,7 +7372,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12"/>
       <c r="C12" s="2" t="s">
@@ -6747,7 +7395,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13"/>
       <c r="C13" s="2" t="s">
@@ -6778,56 +7426,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="20" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="19" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="18" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13" type="list" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C13" type="list" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="37.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="8.6640625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -6857,7 +7505,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -6877,7 +7525,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -6887,7 +7535,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -6932,7 +7580,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>553</v>
       </c>
@@ -6961,7 +7609,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -6984,7 +7632,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -7007,7 +7655,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -7038,57 +7686,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="17" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="16" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="15" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C8" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C8" type="list" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D8" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D8" type="list" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://toolsqa.com/iframe-practice-page/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="http://toolsqa.com/iframe-practice-page/" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="57.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="34.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="57.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="51.83203125" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -7118,7 +7766,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -7138,7 +7786,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -7148,7 +7796,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -7193,7 +7841,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>557</v>
       </c>
@@ -7222,7 +7870,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -7245,7 +7893,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -7270,7 +7918,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -7295,7 +7943,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -7318,7 +7966,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
@@ -7343,7 +7991,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11"/>
       <c r="C11" s="2" t="s">
@@ -7366,7 +8014,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12"/>
       <c r="C12" s="2" t="s">
@@ -7391,7 +8039,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13"/>
       <c r="C13" s="2" t="s">
@@ -7422,57 +8070,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="14" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="13" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="12" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13" type="list" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C13" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C13" type="list" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.1640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="26.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="14.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="36.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="52.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="24.1640625" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -7502,7 +8150,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -7522,7 +8170,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -7532,7 +8180,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -7577,7 +8225,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>560</v>
       </c>
@@ -7606,7 +8254,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -7631,7 +8279,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -7658,7 +8306,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -7683,7 +8331,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -7708,7 +8356,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
@@ -7739,58 +8387,58 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10" type="list" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C10" type="list" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="46" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="39.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="35.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="26.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="46.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="21.33203125" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -7820,7 +8468,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -7840,7 +8488,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -7850,7 +8498,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -7895,7 +8543,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>566</v>
       </c>
@@ -7924,7 +8572,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>372</v>
@@ -7949,7 +8597,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>374</v>
@@ -7974,7 +8622,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>376</v>
@@ -8003,7 +8651,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>377</v>
@@ -8030,7 +8678,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>379</v>
@@ -8057,7 +8705,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>381</v>
@@ -8082,7 +8730,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>370</v>
@@ -8109,7 +8757,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>374</v>
@@ -8134,7 +8782,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>376</v>
@@ -8163,7 +8811,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" t="s">
         <v>377</v>
@@ -8190,7 +8838,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>568</v>
@@ -8219,7 +8867,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>569</v>
@@ -8248,7 +8896,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="3" t="s">
         <v>379</v>
@@ -8275,7 +8923,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>381</v>
@@ -8310,70 +8958,70 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N9 N12:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D19" type="list" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C19" type="list" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink r:id="rId2" ref="E12" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="62.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="34.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="62.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="5" width="21.33203125" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -8403,7 +9051,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -8423,7 +9071,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -8433,7 +9081,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -8478,7 +9126,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>572</v>
       </c>
@@ -8507,7 +9155,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -8530,7 +9178,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -8551,7 +9199,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -8576,7 +9224,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -8601,7 +9249,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
@@ -8632,56 +9280,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C10" type="list" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D10" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D10" type="list" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://money.cnn.com/" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="http://money.cnn.com/" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="23.33203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.6640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="25.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.1640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="3" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="30.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="5" width="25.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="24.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -8711,7 +9359,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>354</v>
       </c>
@@ -8731,7 +9379,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -8741,7 +9389,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -8786,7 +9434,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>368</v>
       </c>
@@ -8811,7 +9459,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>370</v>
@@ -8838,7 +9486,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>372</v>
@@ -8863,7 +9511,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>374</v>
@@ -8888,7 +9536,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>376</v>
@@ -8917,7 +9565,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>377</v>
@@ -8944,7 +9592,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>379</v>
@@ -8971,7 +9619,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>381</v>
@@ -8997,7 +9645,7 @@
       <c r="O12"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9005,56 +9653,56 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="98" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="98" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="97" priority="13" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="97" operator="beginsWith" priority="13" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="96" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C12" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D12" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O1006"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P1006"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="44.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.1640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="18.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="33.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="44.33203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="24.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -9084,7 +9732,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>354</v>
       </c>
@@ -9104,7 +9752,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -9114,7 +9762,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -9159,7 +9807,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>383</v>
       </c>
@@ -9188,7 +9836,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>385</v>
@@ -9217,7 +9865,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="3" t="s">
         <v>388</v>
@@ -9244,78 +9892,78 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="17" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="18" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="19" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="20" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="21" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="22" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="23" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="24" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="25" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="26" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:15" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="29" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="30" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="31" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="32" spans="2:2" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="33" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="34" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="35" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="36" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="37" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="38" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="39" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="40" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="41" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="44" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="46" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="61" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="78" s="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
@@ -9332,936 +9980,936 @@
       <c r="N78" s="7"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="94" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10269,62 +10917,62 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="95" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="95" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="94" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="93" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="93" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D7" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(B5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D704" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D8:D704" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C8)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C706" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C706" type="list" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://tinyupload.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="http://tinyupload.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="62.83203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.83203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.1640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="32.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="62.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="24.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -10354,7 +11002,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>354</v>
       </c>
@@ -10374,7 +11022,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -10384,7 +11032,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -10429,7 +11077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>390</v>
       </c>
@@ -10460,7 +11108,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
@@ -10481,7 +11129,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="5" t="s">
         <v>394</v>
@@ -10510,7 +11158,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="5" t="s">
         <v>397</v>
@@ -10537,7 +11185,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="5" t="s">
         <v>399</v>
@@ -10562,7 +11210,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="5" t="s">
         <v>401</v>
@@ -10589,7 +11237,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="5" t="s">
         <v>403</v>
@@ -10614,7 +11262,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="5" t="s">
         <v>404</v>
@@ -10643,7 +11291,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="5" t="s">
         <v>406</v>
@@ -10668,7 +11316,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="5" t="s">
         <v>407</v>
@@ -10693,7 +11341,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="5" t="s">
         <v>408</v>
@@ -10718,7 +11366,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="5" t="s">
         <v>409</v>
@@ -10747,7 +11395,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="5" t="s">
         <v>411</v>
@@ -10771,7 +11419,7 @@
       <c r="O17"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10779,59 +11427,59 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="92" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="92" operator="beginsWith" priority="13" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="91" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="91" operator="beginsWith" priority="14" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="90" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C17" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C17" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D17" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://toolsqa.com/handling-alerts-using-selenium-webdriver/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="http://toolsqa.com/handling-alerts-using-selenium-webdriver/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="54.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.1640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="31.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="54.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="28.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="24.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -10861,7 +11509,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="140" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>354</v>
       </c>
@@ -10881,7 +11529,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -10891,7 +11539,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -10936,7 +11584,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>412</v>
       </c>
@@ -10967,7 +11615,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>414</v>
@@ -10992,7 +11640,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="3" t="s">
         <v>415</v>
@@ -11021,7 +11669,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="3" t="s">
         <v>374</v>
@@ -11046,7 +11694,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="3" t="s">
         <v>419</v>
@@ -11073,7 +11721,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="3" t="s">
         <v>374</v>
@@ -11098,7 +11746,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="3" t="s">
         <v>374</v>
@@ -11123,7 +11771,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="3" t="s">
         <v>422</v>
@@ -11150,7 +11798,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="3" t="s">
         <v>423</v>
@@ -11175,7 +11823,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="3" t="s">
         <v>422</v>
@@ -11202,7 +11850,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="3" t="s">
         <v>415</v>
@@ -11231,7 +11879,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="3" t="s">
         <v>415</v>
@@ -11260,7 +11908,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="3" t="s">
         <v>427</v>
@@ -11287,7 +11935,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="3" t="s">
         <v>423</v>
@@ -11313,7 +11961,7 @@
       <c r="O18"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11321,58 +11969,58 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="89" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="89" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="88" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="87" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="87" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D18" type="list" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C18" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C18" type="list" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://store.demoqa.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="http://store.demoqa.com/" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="58.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="52.6640625" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -11402,7 +12050,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -11422,7 +12070,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -11432,7 +12080,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -11477,7 +12125,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>430</v>
       </c>
@@ -11506,7 +12154,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -11531,7 +12179,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -11556,7 +12204,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -11579,7 +12227,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>436</v>
@@ -11608,7 +12256,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>436</v>
@@ -11625,10 +12273,16 @@
       <c r="F10" s="5" t="s">
         <v>440</v>
       </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="1:15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
+      <c r="B11"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -11637,9 +12291,14 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>430</v>
       </c>
@@ -11668,7 +12327,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13"/>
       <c r="C13" s="2" t="s">
@@ -11691,7 +12350,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14"/>
       <c r="C14" s="2" t="s">
@@ -11716,7 +12375,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15"/>
       <c r="C15" s="2" t="s">
@@ -11741,7 +12400,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16"/>
       <c r="C16" s="2" t="s">
@@ -11766,7 +12425,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17"/>
       <c r="C17" s="2" t="s">
@@ -11791,7 +12450,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>436</v>
@@ -11818,7 +12477,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
         <v>436</v>
@@ -11845,8 +12504,9 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
+      <c r="B20"/>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
@@ -11855,9 +12515,14 @@
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>430</v>
       </c>
@@ -11886,7 +12551,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22"/>
       <c r="C22" s="2" t="s">
@@ -11909,7 +12574,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23"/>
       <c r="C23" s="2" t="s">
@@ -11934,7 +12599,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24"/>
       <c r="C24" s="2" t="s">
@@ -11959,7 +12624,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25"/>
       <c r="C25" s="2" t="s">
@@ -11984,7 +12649,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26"/>
       <c r="C26" s="2" t="s">
@@ -12009,7 +12674,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
         <v>436</v>
@@ -12032,8 +12697,9 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
+      <c r="B28"/>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
@@ -12042,9 +12708,14 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>430</v>
       </c>
@@ -12073,7 +12744,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30"/>
       <c r="C30" s="2" t="s">
@@ -12096,7 +12767,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31"/>
       <c r="C31" s="2" t="s">
@@ -12121,7 +12792,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32"/>
       <c r="C32" s="2" t="s">
@@ -12146,7 +12817,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33"/>
       <c r="C33" s="2" t="s">
@@ -12171,7 +12842,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34"/>
       <c r="C34" s="2" t="s">
@@ -12197,7 +12868,7 @@
       <c r="O34"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12205,232 +12876,232 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N8">
-    <cfRule type="beginsWith" dxfId="86" priority="58" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="86" operator="beginsWith" priority="58" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="85" priority="59" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="85" operator="beginsWith" priority="59" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="60" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="84" operator="beginsWith" priority="60" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="beginsWith" dxfId="83" priority="55" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="83" operator="beginsWith" priority="55" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="56" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="82" operator="beginsWith" priority="56" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="81" priority="57" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="81" operator="beginsWith" priority="57" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="80" priority="19" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="80" operator="beginsWith" priority="19" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="79" priority="20" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="79" operator="beginsWith" priority="20" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="21" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="78" operator="beginsWith" priority="21" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="77" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="77" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="76" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="75" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="74" priority="43" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="74" operator="beginsWith" priority="43" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="44" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="73" operator="beginsWith" priority="44" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="45" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="72" operator="beginsWith" priority="45" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="71" priority="37" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="71" operator="beginsWith" priority="37" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="38" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="70" operator="beginsWith" priority="38" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="39" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="69" operator="beginsWith" priority="39" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="beginsWith" dxfId="68" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="68" operator="beginsWith" priority="13" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="67" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="67" operator="beginsWith" priority="14" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="66" operator="beginsWith" priority="15" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="beginsWith" dxfId="65" priority="40" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="65" operator="beginsWith" priority="40" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="41" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="64" operator="beginsWith" priority="41" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="42" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="63" operator="beginsWith" priority="42" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="62" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="62" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="61" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="61" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="60" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="beginsWith" dxfId="59" priority="31" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="59" operator="beginsWith" priority="31" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="32" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="58" operator="beginsWith" priority="32" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="33" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="57" operator="beginsWith" priority="33" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="beginsWith" dxfId="56" priority="25" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="56" operator="beginsWith" priority="25" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="26" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="55" operator="beginsWith" priority="26" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="27" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="54" operator="beginsWith" priority="27" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="beginsWith" dxfId="53" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="53" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="52" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="51" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N16">
-    <cfRule type="beginsWith" dxfId="50" priority="49" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="50" operator="beginsWith" priority="49" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="49" priority="50" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="49" operator="beginsWith" priority="50" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="51" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="48" operator="beginsWith" priority="51" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="beginsWith" dxfId="47" priority="52" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="47" operator="beginsWith" priority="52" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="53" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="46" operator="beginsWith" priority="53" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="54" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="45" operator="beginsWith" priority="54" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="beginsWith" dxfId="44" priority="16" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="44" operator="beginsWith" priority="16" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="17" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="43" operator="beginsWith" priority="17" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="18" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="42" operator="beginsWith" priority="18" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N33">
-    <cfRule type="beginsWith" dxfId="41" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="41" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="40" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="39" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N7 N9:N11">
-    <cfRule type="beginsWith" dxfId="38" priority="70" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="38" operator="beginsWith" priority="70" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="71" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="37" operator="beginsWith" priority="71" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="72" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="36" operator="beginsWith" priority="72" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C11 C12 C13 C16 C17 C20 C21 C22 C25 C26 C27 C28 C29 C30 C33 C34 C6:C7 C9:C10 C14:C15 C18:C19 C23:C24 C31:C32" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C8 C11 C12 C13 C16 C17 C20 C21 C22 C25 C26 C27 C28 C29 C30 C33 C34 C6:C7 C9:C10 C14:C15 C18:C19 C23:C24 C31:C32" type="list" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D11 D12 D13 D16 D17 D20 D21 D22 D25 D26 D27 D28 D29 D30 D33 D34 D6:D7 D9:D10 D14:D15 D18:D19 D23:D24 D31:D32" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D8 D11 D12 D13 D16 D17 D20 D21 D22 D25 D26 D27 D28 D29 D30 D33 D34 D6:D7 D9:D10 D14:D15 D18:D19 D23:D24 D31:D32" type="list" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="file:///$(syspath|data|fullpath)/web/localstorage.html" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" tooltip="file:///$(syspath|data|fullpath)/web/localstorage.html" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="109" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="24.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="14.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="40.0" collapsed="true"/>
+    <col min="5" max="10" customWidth="true" style="5" width="24.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -12460,7 +13131,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -12480,7 +13151,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -12490,7 +13161,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -12535,7 +13206,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="5" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>457</v>
       </c>
@@ -12564,7 +13235,7 @@
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
     </row>
-    <row r="6" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="6" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="43"/>
       <c r="B6" s="43" t="s">
         <v>460</v>
@@ -12589,7 +13260,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
     </row>
-    <row r="7" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
       <c r="B7" s="43" t="s">
         <v>462</v>
@@ -12614,7 +13285,7 @@
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
     </row>
-    <row r="8" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="8" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="43" t="s">
         <v>463</v>
@@ -12639,7 +13310,7 @@
       <c r="N8" s="43"/>
       <c r="O8" s="43"/>
     </row>
-    <row r="9" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="9" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="43" t="s">
         <v>465</v>
@@ -12664,7 +13335,7 @@
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
     </row>
-    <row r="10" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="10" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>430</v>
       </c>
@@ -12695,7 +13366,7 @@
       <c r="N10" s="43"/>
       <c r="O10" s="43"/>
     </row>
-    <row r="11" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="43" t="s">
         <v>370</v>
@@ -12722,7 +13393,7 @@
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
     </row>
-    <row r="12" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="12" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="43" t="s">
         <v>470</v>
@@ -12749,7 +13420,7 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
     </row>
-    <row r="13" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="13" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="43" t="s">
         <v>472</v>
@@ -12778,7 +13449,7 @@
       <c r="N13" s="43"/>
       <c r="O13" s="43"/>
     </row>
-    <row r="14" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="14" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="2" t="s">
@@ -12801,7 +13472,7 @@
       <c r="N14" s="43"/>
       <c r="O14" s="43"/>
     </row>
-    <row r="15" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="15" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>589</v>
@@ -12830,7 +13501,7 @@
       <c r="N15" s="43"/>
       <c r="O15" s="43"/>
     </row>
-    <row r="16" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="16" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>733</v>
@@ -12859,7 +13530,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" s="46" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="24" r="17" s="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>733</v>
@@ -12888,7 +13559,9 @@
       <c r="N17" s="7"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="24" r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
@@ -12901,15 +13574,21 @@
       <c r="F18" s="5" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row customHeight="1" ht="24" r="19" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="24" r="20" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="24" r="21" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="24" r="22" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="24" r="23" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="24" r="24" spans="1:15" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12917,68 +13596,68 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="35" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="35" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="34" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="33" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N9 N11:N1048576">
-    <cfRule type="beginsWith" dxfId="32" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="32" operator="beginsWith" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="31" operator="beginsWith" priority="11" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="30" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D16 D18" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D16 D18" type="list" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C14" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C14" type="list" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.1640625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="45.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="69.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="8.83203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="42.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="45.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="69.5" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="5" width="8.83203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="9.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -13008,7 +13687,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -13028,7 +13707,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -13038,7 +13717,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -13083,7 +13762,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>474</v>
       </c>
@@ -13112,7 +13791,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>476</v>
@@ -13141,7 +13820,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>479</v>
@@ -13170,7 +13849,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>480</v>
@@ -13197,7 +13876,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>476</v>
@@ -13226,7 +13905,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>482</v>
@@ -13253,7 +13932,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>483</v>
@@ -13282,7 +13961,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>487</v>
@@ -13309,7 +13988,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>489</v>
@@ -13336,7 +14015,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row ht="160" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>483</v>
@@ -13365,7 +14044,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
         <v>487</v>
@@ -13392,7 +14071,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
         <v>493</v>
@@ -13417,7 +14096,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+    <row ht="160" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
         <v>483</v>
@@ -13446,7 +14125,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
         <v>494</v>
@@ -13473,7 +14152,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>489</v>
@@ -13596,57 +14275,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N23 N35:N1048576 L24:L34">
-    <cfRule type="beginsWith" dxfId="29" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="29" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(L1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="28" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(L1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="27" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(L1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19" xr:uid="{00000000-0002-0000-0700-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19" type="list" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C19" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C19" type="list" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.6640625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="17.83203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="41.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="9.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="34.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="39.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="8.6640625" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="5" width="17.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="8" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="9" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>349</v>
       </c>
@@ -13676,7 +14355,7 @@
       <c r="N1" s="35"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="133" r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>429</v>
       </c>
@@ -13696,7 +14375,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="10" r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -13706,7 +14385,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>355</v>
       </c>
@@ -13751,7 +14430,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>496</v>
       </c>
@@ -13780,7 +14459,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -13805,7 +14484,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2" t="s">
@@ -13828,7 +14507,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2" t="s">
@@ -13853,7 +14532,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -13876,7 +14555,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
@@ -13901,7 +14580,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
@@ -13926,7 +14605,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
@@ -13949,7 +14628,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
@@ -13974,7 +14653,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
@@ -13997,7 +14676,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
@@ -14022,7 +14701,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
@@ -14045,7 +14724,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
@@ -14070,7 +14749,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
@@ -14093,7 +14772,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
@@ -14118,7 +14797,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="24"/>
       <c r="C20" s="2" t="s">
@@ -14141,7 +14820,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
@@ -14166,7 +14845,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
@@ -14189,7 +14868,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="2" t="s">
@@ -14214,7 +14893,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="2" t="s">
@@ -14237,7 +14916,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="24"/>
       <c r="C25" s="2" t="s">
@@ -14262,7 +14941,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="26" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="24"/>
       <c r="C26" s="2" t="s">
@@ -14285,7 +14964,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="27" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="24"/>
       <c r="C27" s="2" t="s">
@@ -14310,7 +14989,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="28" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="24"/>
       <c r="C28" s="2" t="s">
@@ -14333,7 +15012,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="29" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="24"/>
       <c r="C29" s="2" t="s">
@@ -14358,7 +15037,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="30" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="24" t="s">
         <v>519</v>
@@ -14387,7 +15066,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="31" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" s="2" t="s">
@@ -14412,7 +15091,7 @@
       <c r="N31" s="7"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="32" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="2" t="s">
@@ -14435,7 +15114,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="33" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="2" t="s">
@@ -14460,7 +15139,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="34" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="2" t="s">
@@ -14483,7 +15162,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="35" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="24"/>
       <c r="C35" s="2" t="s">
@@ -14508,7 +15187,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="36" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="24"/>
       <c r="C36" s="2" t="s">
@@ -14533,7 +15212,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="37" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="24"/>
       <c r="C37" s="2" t="s">
@@ -14556,7 +15235,7 @@
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="38" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="24"/>
       <c r="C38" s="2" t="s">
@@ -14581,7 +15260,7 @@
       <c r="N38" s="7"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="39" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="24"/>
       <c r="C39" s="2" t="s">
@@ -14604,7 +15283,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="40" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="24"/>
       <c r="C40" s="2" t="s">
@@ -14629,7 +15308,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="41" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="24"/>
       <c r="C41" s="2" t="s">
@@ -14652,7 +15331,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="42" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="24"/>
       <c r="C42" s="2" t="s">
@@ -14677,7 +15356,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="43" s="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="24"/>
       <c r="C43" s="2" t="s">
@@ -14700,7 +15379,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="44" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="24"/>
       <c r="C44" s="2" t="s">
@@ -14725,7 +15404,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="45" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="24"/>
       <c r="C45" s="2" t="s">
@@ -14748,7 +15427,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="46" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" s="24"/>
       <c r="C46" s="2" t="s">
@@ -14773,7 +15452,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="47" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="24"/>
       <c r="C47" s="2" t="s">
@@ -14796,7 +15475,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="48" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" s="24"/>
       <c r="C48" s="2" t="s">
@@ -14821,7 +15500,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="49" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="24"/>
       <c r="C49" s="2" t="s">
@@ -14844,7 +15523,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="50" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="24"/>
       <c r="C50" s="2" t="s">
@@ -14869,7 +15548,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="51" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="24"/>
       <c r="C51" s="2" t="s">
@@ -14892,7 +15571,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="52" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="24"/>
       <c r="C52" s="2" t="s">
@@ -14917,7 +15596,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="53" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" s="24"/>
       <c r="C53" s="2" t="s">
@@ -14940,7 +15619,7 @@
       <c r="N53" s="7"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="54" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" s="24"/>
       <c r="C54" s="2" t="s">
@@ -14965,7 +15644,7 @@
       <c r="N54" s="7"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="55" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="24" t="s">
         <v>522</v>
@@ -14994,7 +15673,7 @@
       <c r="N55" s="7"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="56" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56" s="2" t="s">
@@ -15021,7 +15700,7 @@
       <c r="N56" s="7"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="57" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" s="2" t="s">
@@ -15044,7 +15723,7 @@
       <c r="N57" s="7"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="58" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58" s="2" t="s">
@@ -15069,7 +15748,7 @@
       <c r="N58" s="7"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="59" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59" s="2" t="s">
@@ -15092,7 +15771,7 @@
       <c r="N59" s="7"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" s="24"/>
       <c r="C60" s="2" t="s">
@@ -15117,7 +15796,7 @@
       <c r="N60"/>
       <c r="O60"/>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="61" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" s="24"/>
       <c r="C61" s="2" t="s">
@@ -15142,7 +15821,7 @@
       <c r="N61" s="7"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="62" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="24"/>
       <c r="C62" s="2" t="s">
@@ -15165,7 +15844,7 @@
       <c r="N62" s="7"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="63" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="24"/>
       <c r="C63" s="2" t="s">
@@ -15190,7 +15869,7 @@
       <c r="N63" s="7"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="64" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" s="24"/>
       <c r="C64" s="2" t="s">
@@ -15213,7 +15892,7 @@
       <c r="N64" s="7"/>
       <c r="O64" s="6"/>
     </row>
-    <row r="65" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="65" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="24"/>
       <c r="C65" s="2" t="s">
@@ -15238,7 +15917,7 @@
       <c r="N65" s="7"/>
       <c r="O65" s="6"/>
     </row>
-    <row r="66" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="66" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="24"/>
       <c r="C66" s="2" t="s">
@@ -15261,7 +15940,7 @@
       <c r="N66" s="7"/>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="67" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" s="24"/>
       <c r="C67" s="2" t="s">
@@ -15286,7 +15965,7 @@
       <c r="N67" s="7"/>
       <c r="O67" s="6"/>
     </row>
-    <row r="68" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="16" r="68" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" s="24"/>
       <c r="C68" s="2" t="s">
@@ -15309,7 +15988,7 @@
       <c r="N68" s="7"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row customFormat="1" ht="16" r="69" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" s="24"/>
       <c r="C69" s="2" t="s">
@@ -15334,7 +16013,7 @@
       <c r="N69" s="7"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="70" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="24"/>
       <c r="C70" s="2" t="s">
@@ -15357,7 +16036,7 @@
       <c r="N70" s="7"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="71" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="24"/>
       <c r="C71" s="2" t="s">
@@ -15382,7 +16061,7 @@
       <c r="N71" s="7"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="72" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" s="24"/>
       <c r="C72" s="2" t="s">
@@ -15405,7 +16084,7 @@
       <c r="N72" s="7"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="73" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" s="24"/>
       <c r="C73" s="2" t="s">
@@ -15430,7 +16109,7 @@
       <c r="N73" s="7"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="74" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="24"/>
       <c r="C74" s="2" t="s">
@@ -15453,7 +16132,7 @@
       <c r="N74" s="7"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="75" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="24"/>
       <c r="C75" s="2" t="s">
@@ -15478,7 +16157,7 @@
       <c r="N75" s="7"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="76" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="24"/>
       <c r="C76" s="2" t="s">
@@ -15501,7 +16180,7 @@
       <c r="N76" s="7"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="77" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" s="24"/>
       <c r="C77" s="2" t="s">
@@ -15526,7 +16205,7 @@
       <c r="N77" s="7"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="19" r="78" s="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" s="24"/>
       <c r="C78" s="2" t="s">
@@ -15549,7 +16228,7 @@
       <c r="N78" s="7"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="24"/>
       <c r="C79" s="2" t="s">
@@ -15582,27 +16261,27 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="26" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="25" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="24" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D79" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D79" type="list" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C79" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C79" type="list" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E5" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{EC1348E2-F5B1-5947-AA29-C296510B2B2E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="420" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="420" windowHeight="15780" windowWidth="25600" xWindow="25600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -42,7 +42,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -65,7 +65,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="748">
   <si>
     <t>target</t>
   </si>
@@ -2324,13 +2324,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2508,8 +2520,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="95">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2704,8 +2918,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -3087,13 +3641,577 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3266,52 +4384,148 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="7" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="10" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="13" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="16" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="22" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="25" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="28" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="28" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="37" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="40" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="43" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="46" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="52" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="55" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="58" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="58" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="67" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="70" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="73" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="76" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="82" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="85" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="88" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="88" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4592,7 +5806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4986,7 +6200,7 @@
         <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Q5" t="s">
         <v>61</v>
@@ -5054,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="Q6" t="s">
         <v>75</v>
@@ -5113,7 +6327,7 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="Q7" t="s">
         <v>89</v>
@@ -5171,6 +6385,9 @@
       <c r="M8" t="s">
         <v>88</v>
       </c>
+      <c r="N8" t="s">
+        <v>741</v>
+      </c>
       <c r="Q8" t="s">
         <v>102</v>
       </c>
@@ -5224,6 +6441,9 @@
       <c r="M9" t="s">
         <v>101</v>
       </c>
+      <c r="N9" t="s">
+        <v>742</v>
+      </c>
       <c r="Q9" t="s">
         <v>113</v>
       </c>
@@ -5265,6 +6485,9 @@
       <c r="M10" t="s">
         <v>112</v>
       </c>
+      <c r="N10" t="s">
+        <v>743</v>
+      </c>
       <c r="Q10" t="s">
         <v>644</v>
       </c>
@@ -5653,7 +6876,7 @@
         <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>172</v>
+        <v>747</v>
       </c>
       <c r="Y25" t="s">
         <v>200</v>
@@ -5670,7 +6893,7 @@
         <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>662</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s">
         <v>203</v>
@@ -5687,7 +6910,7 @@
         <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>178</v>
+        <v>662</v>
       </c>
       <c r="Y27" t="s">
         <v>206</v>
@@ -5704,7 +6927,7 @@
         <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y28" t="s">
         <v>209</v>
@@ -5719,6 +6942,9 @@
       </c>
       <c r="G29" t="s">
         <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
       </c>
       <c r="Y29" t="s">
         <v>212</v>
@@ -6448,7 +7674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7061,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7452,7 +8678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -7715,7 +8941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8099,7 +9325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8416,7 +9642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -8999,7 +10225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -9309,7 +10535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -9680,7 +10906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -10950,7 +12176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11457,7 +12683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11999,7 +13225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="125" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="125">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13082,7 +14308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="109" zoomScale="100">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="109">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13634,7 +14860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -14304,7 +15530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
@@ -65,7 +65,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="752">
   <si>
     <t>target</t>
   </si>
@@ -2336,13 +2336,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2722,8 +2734,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="95">
+  <fills count="125">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3258,8 +3371,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -4205,13 +4488,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4480,52 +5045,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="64" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="67" borderId="72" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="67" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="70" borderId="76" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="70" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="73" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="73" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="76" borderId="80" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="76" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="79" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="82" borderId="84" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="82" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="85" borderId="88" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="85" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="88" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="88" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="88" borderId="92" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="88" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="91" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="91" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="94" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="97" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="100" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="103" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="106" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="112" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="115" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="118" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="118" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6010,7 +6623,7 @@
         <v>683</v>
       </c>
       <c r="D3" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
         <v>679</v>
@@ -6093,7 +6706,7 @@
         <v>580</v>
       </c>
       <c r="D4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -6176,7 +6789,7 @@
         <v>581</v>
       </c>
       <c r="D5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E5" t="s">
         <v>680</v>
@@ -6200,7 +6813,7 @@
         <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="Q5" t="s">
         <v>61</v>
@@ -6246,6 +6859,9 @@
       <c r="B6" t="s">
         <v>582</v>
       </c>
+      <c r="D6" t="s">
+        <v>711</v>
+      </c>
       <c r="E6" t="s">
         <v>53</v>
       </c>
@@ -6268,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="N6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q6" t="s">
         <v>75</v>
@@ -6327,7 +6943,7 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q7" t="s">
         <v>89</v>
@@ -6386,7 +7002,7 @@
         <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="Q8" t="s">
         <v>102</v>
@@ -6442,7 +7058,7 @@
         <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="Q9" t="s">
         <v>113</v>
@@ -6486,7 +7102,7 @@
         <v>112</v>
       </c>
       <c r="N10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Q10" t="s">
         <v>644</v>
@@ -6526,6 +7142,9 @@
       <c r="M11" t="s">
         <v>693</v>
       </c>
+      <c r="N11" t="s">
+        <v>742</v>
+      </c>
       <c r="Q11" t="s">
         <v>123</v>
       </c>
@@ -6561,6 +7180,9 @@
       <c r="M12" t="s">
         <v>663</v>
       </c>
+      <c r="N12" t="s">
+        <v>743</v>
+      </c>
       <c r="Q12" t="s">
         <v>132</v>
       </c>
@@ -6876,7 +7498,7 @@
         <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Y25" t="s">
         <v>200</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -40,7 +40,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -59,7 +59,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="754">
   <si>
     <t>target</t>
   </si>
@@ -2348,13 +2348,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2835,8 +2841,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="125">
+  <fills count="155">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3541,8 +3648,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -4770,13 +5047,295 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="131">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5093,52 +5652,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="94" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="97" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="97" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="100" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="100" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="103" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="103" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="106" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="106" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="112" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="112" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="115" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="115" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="118" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="118" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="118" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="118" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="121" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="106" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="106" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="127" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="130" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="133" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="136" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="142" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="145" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="148" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="148" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6417,7 +7024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6803,6 +7410,9 @@
       <c r="H5" t="s">
         <v>677</v>
       </c>
+      <c r="I5" t="s">
+        <v>752</v>
+      </c>
       <c r="J5" t="s">
         <v>57</v>
       </c>
@@ -7679,7 +8289,7 @@
         <v>228</v>
       </c>
       <c r="Y39" t="s">
-        <v>602</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40">
@@ -7687,7 +8297,7 @@
         <v>230</v>
       </c>
       <c r="Y40" t="s">
-        <v>231</v>
+        <v>602</v>
       </c>
     </row>
     <row r="41">
@@ -7695,7 +8305,7 @@
         <v>232</v>
       </c>
       <c r="Y41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
@@ -7703,7 +8313,7 @@
         <v>234</v>
       </c>
       <c r="Y42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
@@ -7711,7 +8321,7 @@
         <v>236</v>
       </c>
       <c r="Y43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44">
@@ -7719,7 +8329,7 @@
         <v>238</v>
       </c>
       <c r="Y44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
@@ -7727,7 +8337,7 @@
         <v>240</v>
       </c>
       <c r="Y45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46">
@@ -7735,7 +8345,7 @@
         <v>242</v>
       </c>
       <c r="Y46" t="s">
-        <v>664</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
@@ -7743,7 +8353,7 @@
         <v>244</v>
       </c>
       <c r="Y47" t="s">
-        <v>243</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48">
@@ -7751,7 +8361,7 @@
         <v>246</v>
       </c>
       <c r="Y48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49">
@@ -7759,7 +8369,7 @@
         <v>248</v>
       </c>
       <c r="Y49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50">
@@ -7767,7 +8377,7 @@
         <v>250</v>
       </c>
       <c r="Y50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -7775,7 +8385,7 @@
         <v>252</v>
       </c>
       <c r="Y51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52">
@@ -7783,7 +8393,7 @@
         <v>254</v>
       </c>
       <c r="Y52" t="s">
-        <v>705</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53">
@@ -7791,7 +8401,7 @@
         <v>258</v>
       </c>
       <c r="Y53" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54">
@@ -7799,7 +8409,7 @@
         <v>260</v>
       </c>
       <c r="Y54" t="s">
-        <v>253</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55">
@@ -7807,7 +8417,7 @@
         <v>262</v>
       </c>
       <c r="Y55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56">
@@ -7815,7 +8425,7 @@
         <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>681</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57">
@@ -7823,7 +8433,7 @@
         <v>266</v>
       </c>
       <c r="Y57" t="s">
-        <v>256</v>
+        <v>681</v>
       </c>
     </row>
     <row r="58">
@@ -7831,7 +8441,7 @@
         <v>268</v>
       </c>
       <c r="Y58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59">
@@ -7839,7 +8449,7 @@
         <v>270</v>
       </c>
       <c r="Y59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60">
@@ -7847,7 +8457,7 @@
         <v>272</v>
       </c>
       <c r="Y60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61">
@@ -7855,7 +8465,7 @@
         <v>274</v>
       </c>
       <c r="Y61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62">
@@ -7863,7 +8473,7 @@
         <v>276</v>
       </c>
       <c r="Y62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63">
@@ -7871,7 +8481,7 @@
         <v>278</v>
       </c>
       <c r="Y63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64">
@@ -7879,7 +8489,7 @@
         <v>280</v>
       </c>
       <c r="Y64" t="s">
-        <v>660</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -7887,7 +8497,7 @@
         <v>282</v>
       </c>
       <c r="Y65" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
     </row>
     <row r="66">
@@ -7895,7 +8505,7 @@
         <v>284</v>
       </c>
       <c r="Y66" t="s">
-        <v>269</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67">
@@ -7903,7 +8513,7 @@
         <v>286</v>
       </c>
       <c r="Y67" t="s">
-        <v>598</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68">
@@ -7911,7 +8521,7 @@
         <v>288</v>
       </c>
       <c r="Y68" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69">
@@ -7919,7 +8529,7 @@
         <v>290</v>
       </c>
       <c r="Y69" t="s">
-        <v>271</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70">
@@ -7927,7 +8537,7 @@
         <v>632</v>
       </c>
       <c r="Y70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
@@ -7935,7 +8545,7 @@
         <v>292</v>
       </c>
       <c r="Y71" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72">
@@ -7943,7 +8553,7 @@
         <v>633</v>
       </c>
       <c r="Y72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -7951,7 +8561,7 @@
         <v>294</v>
       </c>
       <c r="Y73" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74">
@@ -7959,7 +8569,7 @@
         <v>730</v>
       </c>
       <c r="Y74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75">
@@ -7967,7 +8577,7 @@
         <v>296</v>
       </c>
       <c r="Y75" t="s">
-        <v>676</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76">
@@ -7975,7 +8585,7 @@
         <v>298</v>
       </c>
       <c r="Y76" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77">
@@ -7983,7 +8593,7 @@
         <v>300</v>
       </c>
       <c r="Y77" t="s">
-        <v>283</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78">
@@ -7991,7 +8601,7 @@
         <v>302</v>
       </c>
       <c r="Y78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79">
@@ -7999,7 +8609,7 @@
         <v>639</v>
       </c>
       <c r="Y79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80">
@@ -8007,7 +8617,7 @@
         <v>304</v>
       </c>
       <c r="Y80" t="s">
-        <v>717</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81">
@@ -8015,7 +8625,7 @@
         <v>306</v>
       </c>
       <c r="Y81" t="s">
-        <v>289</v>
+        <v>717</v>
       </c>
     </row>
     <row r="82">
@@ -8023,7 +8633,7 @@
         <v>307</v>
       </c>
       <c r="Y82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
@@ -8031,7 +8641,7 @@
         <v>309</v>
       </c>
       <c r="Y83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84">
@@ -8039,7 +8649,7 @@
         <v>311</v>
       </c>
       <c r="Y84" t="s">
-        <v>706</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85">
@@ -8047,7 +8657,7 @@
         <v>313</v>
       </c>
       <c r="Y85" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86">
@@ -8055,7 +8665,7 @@
         <v>315</v>
       </c>
       <c r="Y86" t="s">
-        <v>675</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87">
@@ -8063,7 +8673,7 @@
         <v>317</v>
       </c>
       <c r="Y87" t="s">
-        <v>297</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88">
@@ -8071,7 +8681,7 @@
         <v>319</v>
       </c>
       <c r="Y88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89">
@@ -8079,7 +8689,7 @@
         <v>321</v>
       </c>
       <c r="Y89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90">
@@ -8087,7 +8697,7 @@
         <v>323</v>
       </c>
       <c r="Y90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91">
@@ -8095,7 +8705,7 @@
         <v>325</v>
       </c>
       <c r="Y91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92">
@@ -8103,7 +8713,7 @@
         <v>327</v>
       </c>
       <c r="Y92" t="s">
-        <v>652</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93">
@@ -8111,7 +8721,7 @@
         <v>329</v>
       </c>
       <c r="Y93" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94">
@@ -8119,171 +8729,176 @@
         <v>331</v>
       </c>
       <c r="Y94" t="s">
-        <v>308</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>728</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>320</v>
+        <v>731</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>732</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>590</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>322</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>666</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>340</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>348</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -38,13 +38,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -59,12 +59,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5087" uniqueCount="765">
   <si>
     <t>target</t>
   </si>
@@ -2354,13 +2354,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2942,8 +2975,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="155">
+  <fills count="182">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3818,8 +3952,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -5329,13 +5616,339 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5700,52 +6313,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="127" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="127" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="130" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="130" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="133" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="133" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="136" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="136" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="142" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="142" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="145" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="145" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="148" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="148" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="148" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="148" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="157" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="160" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="163" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="166" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="172" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="175" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="175" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7024,7 +7685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7546,6 +8207,9 @@
       <c r="H7" t="s">
         <v>669</v>
       </c>
+      <c r="J7" t="s">
+        <v>756</v>
+      </c>
       <c r="K7" t="s">
         <v>87</v>
       </c>
@@ -7586,7 +8250,7 @@
         <v>657</v>
       </c>
       <c r="AD7" t="s">
-        <v>96</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8">
@@ -7642,7 +8306,7 @@
         <v>658</v>
       </c>
       <c r="AD8" t="s">
-        <v>108</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9">
@@ -7689,7 +8353,7 @@
         <v>126</v>
       </c>
       <c r="AD9" t="s">
-        <v>118</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10">
@@ -7730,7 +8394,7 @@
         <v>135</v>
       </c>
       <c r="AD10" t="s">
-        <v>696</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -7768,7 +8432,7 @@
         <v>143</v>
       </c>
       <c r="AD11" t="s">
-        <v>713</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -7788,7 +8452,7 @@
         <v>599</v>
       </c>
       <c r="M12" t="s">
-        <v>663</v>
+        <v>757</v>
       </c>
       <c r="N12" t="s">
         <v>743</v>
@@ -7806,7 +8470,7 @@
         <v>151</v>
       </c>
       <c r="AD12" t="s">
-        <v>714</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -7826,7 +8490,7 @@
         <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="Q13" t="s">
         <v>140</v>
@@ -7841,7 +8505,7 @@
         <v>157</v>
       </c>
       <c r="AD13" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14">
@@ -7861,7 +8525,7 @@
         <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>694</v>
       </c>
       <c r="Q14" t="s">
         <v>148</v>
@@ -7876,7 +8540,7 @@
         <v>163</v>
       </c>
       <c r="AD14" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15">
@@ -7893,7 +8557,7 @@
         <v>727</v>
       </c>
       <c r="M15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q15" t="s">
         <v>721</v>
@@ -7908,7 +8572,7 @@
         <v>169</v>
       </c>
       <c r="AD15" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16">
@@ -7925,7 +8589,7 @@
         <v>138</v>
       </c>
       <c r="M16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Q16" t="s">
         <v>722</v>
@@ -7940,7 +8604,7 @@
         <v>175</v>
       </c>
       <c r="AD16" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17">
@@ -7956,6 +8620,9 @@
       <c r="K17" t="s">
         <v>147</v>
       </c>
+      <c r="M17" t="s">
+        <v>139</v>
+      </c>
       <c r="Y17" t="s">
         <v>723</v>
       </c>
@@ -7963,7 +8630,7 @@
         <v>685</v>
       </c>
       <c r="AD17" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18">
@@ -7983,7 +8650,7 @@
         <v>179</v>
       </c>
       <c r="AD18" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19">
@@ -8003,7 +8670,7 @@
         <v>183</v>
       </c>
       <c r="AD19" t="s">
-        <v>127</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20">
@@ -8023,7 +8690,7 @@
         <v>186</v>
       </c>
       <c r="AD20" t="s">
-        <v>136</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21">
@@ -8043,7 +8710,7 @@
         <v>189</v>
       </c>
       <c r="AD21" t="s">
-        <v>144</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22">
@@ -8062,6 +8729,9 @@
       <c r="Y22" t="s">
         <v>704</v>
       </c>
+      <c r="AD22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -8079,6 +8749,9 @@
       <c r="Y23" t="s">
         <v>194</v>
       </c>
+      <c r="AD23" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -8096,6 +8769,9 @@
       <c r="Y24" t="s">
         <v>197</v>
       </c>
+      <c r="AD24" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -8112,6 +8788,9 @@
       </c>
       <c r="Y25" t="s">
         <v>200</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="26">
@@ -8130,6 +8809,9 @@
       <c r="Y26" t="s">
         <v>203</v>
       </c>
+      <c r="AD26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -8147,6 +8829,9 @@
       <c r="Y27" t="s">
         <v>206</v>
       </c>
+      <c r="AD27" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -8377,7 +9062,7 @@
         <v>250</v>
       </c>
       <c r="Y50" t="s">
-        <v>247</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51">
@@ -8385,7 +9070,7 @@
         <v>252</v>
       </c>
       <c r="Y51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52">
@@ -8393,7 +9078,7 @@
         <v>254</v>
       </c>
       <c r="Y52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -8401,7 +9086,7 @@
         <v>258</v>
       </c>
       <c r="Y53" t="s">
-        <v>705</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54">
@@ -8409,7 +9094,7 @@
         <v>260</v>
       </c>
       <c r="Y54" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55">
@@ -8417,7 +9102,7 @@
         <v>262</v>
       </c>
       <c r="Y55" t="s">
-        <v>253</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56">
@@ -8425,7 +9110,7 @@
         <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -8433,7 +9118,7 @@
         <v>266</v>
       </c>
       <c r="Y57" t="s">
-        <v>681</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58">
@@ -8441,7 +9126,7 @@
         <v>268</v>
       </c>
       <c r="Y58" t="s">
-        <v>256</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59">
@@ -8449,7 +9134,7 @@
         <v>270</v>
       </c>
       <c r="Y59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -8457,7 +9142,7 @@
         <v>272</v>
       </c>
       <c r="Y60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -8465,7 +9150,7 @@
         <v>274</v>
       </c>
       <c r="Y61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62">
@@ -8473,7 +9158,7 @@
         <v>276</v>
       </c>
       <c r="Y62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63">
@@ -8481,7 +9166,7 @@
         <v>278</v>
       </c>
       <c r="Y63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64">
@@ -8489,7 +9174,7 @@
         <v>280</v>
       </c>
       <c r="Y64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65">
@@ -8497,7 +9182,7 @@
         <v>282</v>
       </c>
       <c r="Y65" t="s">
-        <v>660</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66">
@@ -8505,7 +9190,7 @@
         <v>284</v>
       </c>
       <c r="Y66" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67">
@@ -8513,15 +9198,15 @@
         <v>286</v>
       </c>
       <c r="Y67" t="s">
-        <v>269</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>288</v>
+        <v>754</v>
       </c>
       <c r="Y68" t="s">
-        <v>598</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
@@ -8529,7 +9214,7 @@
         <v>290</v>
       </c>
       <c r="Y69" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70">
@@ -8537,7 +9222,7 @@
         <v>632</v>
       </c>
       <c r="Y70" t="s">
-        <v>271</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71">
@@ -8545,7 +9230,7 @@
         <v>292</v>
       </c>
       <c r="Y71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72">
@@ -8553,7 +9238,7 @@
         <v>633</v>
       </c>
       <c r="Y72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73">
@@ -8561,7 +9246,7 @@
         <v>294</v>
       </c>
       <c r="Y73" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74">
@@ -8569,7 +9254,7 @@
         <v>730</v>
       </c>
       <c r="Y74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75">
@@ -8577,7 +9262,7 @@
         <v>296</v>
       </c>
       <c r="Y75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76">
@@ -8585,7 +9270,7 @@
         <v>298</v>
       </c>
       <c r="Y76" t="s">
-        <v>676</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77">
@@ -8593,7 +9278,7 @@
         <v>300</v>
       </c>
       <c r="Y77" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="78">
@@ -8601,7 +9286,7 @@
         <v>302</v>
       </c>
       <c r="Y78" t="s">
-        <v>283</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79">
@@ -8609,7 +9294,7 @@
         <v>639</v>
       </c>
       <c r="Y79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80">
@@ -8617,7 +9302,7 @@
         <v>304</v>
       </c>
       <c r="Y80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81">
@@ -8625,7 +9310,7 @@
         <v>306</v>
       </c>
       <c r="Y81" t="s">
-        <v>717</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82">
@@ -8633,7 +9318,7 @@
         <v>307</v>
       </c>
       <c r="Y82" t="s">
-        <v>289</v>
+        <v>717</v>
       </c>
     </row>
     <row r="83">
@@ -8641,7 +9326,7 @@
         <v>309</v>
       </c>
       <c r="Y83" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84">
@@ -8649,256 +9334,264 @@
         <v>311</v>
       </c>
       <c r="Y84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>313</v>
+        <v>755</v>
       </c>
       <c r="Y85" t="s">
-        <v>706</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Y86" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Y87" t="s">
-        <v>675</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Y88" t="s">
-        <v>297</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Y90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y91" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y92" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Y93" t="s">
-        <v>652</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>331</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>728</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>320</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>732</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>590</v>
+        <v>732</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>322</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>666</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>340</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>348</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -34,7 +34,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -58,14 +58,15 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5087" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="768">
   <si>
     <t>target</t>
   </si>
@@ -2387,13 +2388,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3076,8 +3086,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="182">
+  <fills count="209">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4105,8 +4216,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="181">
+  <borders count="213">
     <border>
       <left/>
       <right/>
@@ -5942,13 +6206,339 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -6361,52 +6951,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="157" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="157" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="160" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="160" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="163" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="163" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="166" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="166" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="172" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="172" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="163" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="175" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="175" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="175" borderId="180" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="180" fillId="175" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="184" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="187" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="190" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="193" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="196" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="199" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="190" borderId="208" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="202" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="202" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7685,7 +8323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7770,21 +8408,24 @@
         <v>618</v>
       </c>
       <c r="Y1" t="s">
-        <v>15</v>
+        <v>765</v>
       </c>
       <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>636</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7862,21 +8503,24 @@
         <v>619</v>
       </c>
       <c r="Y2" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z2" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>653</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7947,22 +8591,22 @@
       <c r="X3" t="s">
         <v>620</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8030,22 +8674,22 @@
       <c r="X4" t="s">
         <v>621</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>67</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>654</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8104,22 +8748,22 @@
       <c r="W5" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>79</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>655</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8172,22 +8816,22 @@
       <c r="W6" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>667</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>656</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8234,22 +8878,22 @@
       <c r="W7" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>105</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>668</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>106</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>657</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>759</v>
       </c>
     </row>
@@ -8290,22 +8934,22 @@
       <c r="W8" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>116</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>658</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>760</v>
       </c>
     </row>
@@ -8346,13 +8990,13 @@
       <c r="W9" t="s">
         <v>104</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>125</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>126</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>761</v>
       </c>
     </row>
@@ -8387,13 +9031,13 @@
       <c r="T10" t="s">
         <v>631</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>134</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>135</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8425,13 +9069,13 @@
       <c r="R11" t="s">
         <v>141</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>142</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>143</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8463,13 +9107,13 @@
       <c r="R12" t="s">
         <v>149</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>150</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>151</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8498,13 +9142,13 @@
       <c r="R13" t="s">
         <v>155</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>156</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>157</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>696</v>
       </c>
     </row>
@@ -8533,13 +9177,13 @@
       <c r="R14" t="s">
         <v>161</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>162</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>163</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>713</v>
       </c>
     </row>
@@ -8565,13 +9209,13 @@
       <c r="R15" t="s">
         <v>167</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>168</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>169</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>714</v>
       </c>
     </row>
@@ -8597,13 +9241,13 @@
       <c r="R16" t="s">
         <v>173</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>174</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>175</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8623,13 +9267,13 @@
       <c r="M17" t="s">
         <v>139</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>723</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>685</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>719</v>
       </c>
     </row>
@@ -8646,10 +9290,10 @@
       <c r="K18" t="s">
         <v>678</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>179</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>697</v>
       </c>
     </row>
@@ -8666,10 +9310,10 @@
       <c r="K19" t="s">
         <v>154</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>183</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>715</v>
       </c>
     </row>
@@ -8686,10 +9330,10 @@
       <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>186</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>716</v>
       </c>
     </row>
@@ -8706,10 +9350,10 @@
       <c r="K21" t="s">
         <v>586</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>189</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8718,7 +9362,7 @@
         <v>635</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>766</v>
       </c>
       <c r="G22" t="s">
         <v>188</v>
@@ -8726,10 +9370,10 @@
       <c r="K22" t="s">
         <v>692</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>704</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8738,7 +9382,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>191</v>
@@ -8746,10 +9390,10 @@
       <c r="K23" t="s">
         <v>166</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>194</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8758,7 +9402,7 @@
         <v>618</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
         <v>193</v>
@@ -8766,19 +9410,19 @@
       <c r="K24" t="s">
         <v>601</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>197</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>765</v>
       </c>
       <c r="E25" t="s">
-        <v>671</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
         <v>196</v>
@@ -8786,19 +9430,19 @@
       <c r="K25" t="s">
         <v>749</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>200</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>671</v>
       </c>
       <c r="G26" t="s">
         <v>199</v>
@@ -8806,19 +9450,19 @@
       <c r="K26" t="s">
         <v>172</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>203</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
         <v>202</v>
@@ -8826,19 +9470,19 @@
       <c r="K27" t="s">
         <v>662</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>206</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>690</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
         <v>205</v>
@@ -8846,16 +9490,16 @@
       <c r="K28" t="s">
         <v>178</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>636</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G29" t="s">
         <v>208</v>
@@ -8863,117 +9507,123 @@
       <c r="K29" t="s">
         <v>182</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>636</v>
       </c>
       <c r="E30" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="G30" t="s">
         <v>211</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>638</v>
       </c>
       <c r="G31" t="s">
         <v>214</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
         <v>216</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G33" t="s">
         <v>729</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
         <v>218</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G36" t="s">
         <v>222</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G37" t="s">
         <v>224</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G38" t="s">
         <v>226</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
       <c r="G39" t="s">
         <v>228</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>753</v>
       </c>
     </row>
@@ -8981,7 +9631,7 @@
       <c r="G40" t="s">
         <v>230</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8989,7 +9639,7 @@
       <c r="G41" t="s">
         <v>232</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8997,7 +9647,7 @@
       <c r="G42" t="s">
         <v>234</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9005,7 +9655,7 @@
       <c r="G43" t="s">
         <v>236</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9013,7 +9663,7 @@
       <c r="G44" t="s">
         <v>238</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9021,7 +9671,7 @@
       <c r="G45" t="s">
         <v>240</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9029,7 +9679,7 @@
       <c r="G46" t="s">
         <v>242</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9037,7 +9687,7 @@
       <c r="G47" t="s">
         <v>244</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>664</v>
       </c>
     </row>
@@ -9045,7 +9695,7 @@
       <c r="G48" t="s">
         <v>246</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>243</v>
       </c>
     </row>
@@ -9053,7 +9703,7 @@
       <c r="G49" t="s">
         <v>248</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9061,7 +9711,7 @@
       <c r="G50" t="s">
         <v>250</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>758</v>
       </c>
     </row>
@@ -9069,7 +9719,7 @@
       <c r="G51" t="s">
         <v>252</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>247</v>
       </c>
     </row>
@@ -9077,7 +9727,7 @@
       <c r="G52" t="s">
         <v>254</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9085,7 +9735,7 @@
       <c r="G53" t="s">
         <v>258</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9093,7 +9743,7 @@
       <c r="G54" t="s">
         <v>260</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>705</v>
       </c>
     </row>
@@ -9101,7 +9751,7 @@
       <c r="G55" t="s">
         <v>262</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>687</v>
       </c>
     </row>
@@ -9109,7 +9759,7 @@
       <c r="G56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9117,7 +9767,7 @@
       <c r="G57" t="s">
         <v>266</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9125,7 +9775,7 @@
       <c r="G58" t="s">
         <v>268</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>681</v>
       </c>
     </row>
@@ -9133,7 +9783,7 @@
       <c r="G59" t="s">
         <v>270</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9141,7 +9791,7 @@
       <c r="G60" t="s">
         <v>272</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9149,7 +9799,7 @@
       <c r="G61" t="s">
         <v>274</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9157,7 +9807,7 @@
       <c r="G62" t="s">
         <v>276</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9165,7 +9815,7 @@
       <c r="G63" t="s">
         <v>278</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9173,7 +9823,7 @@
       <c r="G64" t="s">
         <v>280</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9181,7 +9831,7 @@
       <c r="G65" t="s">
         <v>282</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>267</v>
       </c>
     </row>
@@ -9189,7 +9839,7 @@
       <c r="G66" t="s">
         <v>284</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9197,7 +9847,7 @@
       <c r="G67" t="s">
         <v>286</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>695</v>
       </c>
     </row>
@@ -9205,7 +9855,7 @@
       <c r="G68" t="s">
         <v>754</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9213,7 +9863,7 @@
       <c r="G69" t="s">
         <v>290</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9221,7 +9871,7 @@
       <c r="G70" t="s">
         <v>632</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>665</v>
       </c>
     </row>
@@ -9229,7 +9879,7 @@
       <c r="G71" t="s">
         <v>292</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9237,7 +9887,7 @@
       <c r="G72" t="s">
         <v>633</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9245,7 +9895,7 @@
       <c r="G73" t="s">
         <v>294</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9253,7 +9903,7 @@
       <c r="G74" t="s">
         <v>730</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9261,7 +9911,7 @@
       <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9269,7 +9919,7 @@
       <c r="G76" t="s">
         <v>298</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9277,7 +9927,7 @@
       <c r="G77" t="s">
         <v>300</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>676</v>
       </c>
     </row>
@@ -9285,7 +9935,7 @@
       <c r="G78" t="s">
         <v>302</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>689</v>
       </c>
     </row>
@@ -9293,7 +9943,7 @@
       <c r="G79" t="s">
         <v>639</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9301,7 +9951,7 @@
       <c r="G80" t="s">
         <v>304</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9309,7 +9959,7 @@
       <c r="G81" t="s">
         <v>306</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9317,7 +9967,7 @@
       <c r="G82" t="s">
         <v>307</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>717</v>
       </c>
     </row>
@@ -9325,7 +9975,7 @@
       <c r="G83" t="s">
         <v>309</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9333,7 +9983,7 @@
       <c r="G84" t="s">
         <v>311</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9341,7 +9991,7 @@
       <c r="G85" t="s">
         <v>755</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9349,7 +9999,7 @@
       <c r="G86" t="s">
         <v>313</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9357,7 +10007,7 @@
       <c r="G87" t="s">
         <v>315</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9365,7 +10015,7 @@
       <c r="G88" t="s">
         <v>317</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9373,7 +10023,7 @@
       <c r="G89" t="s">
         <v>319</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9381,7 +10031,7 @@
       <c r="G90" t="s">
         <v>321</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>299</v>
       </c>
     </row>
@@ -9389,7 +10039,7 @@
       <c r="G91" t="s">
         <v>323</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9397,7 +10047,7 @@
       <c r="G92" t="s">
         <v>325</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9405,7 +10055,7 @@
       <c r="G93" t="s">
         <v>327</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9413,7 +10063,7 @@
       <c r="G94" t="s">
         <v>329</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>652</v>
       </c>
     </row>
@@ -9421,177 +10071,177 @@
       <c r="G95" t="s">
         <v>331</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>348</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B066C-6509-9541-9C2E-751A47F95219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BFC6E-1444-7F41-82B2-3B768C08A837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="420" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="SavePartialText" sheetId="20" r:id="rId14"/>
     <sheet name="DoubleClick" sheetId="22" r:id="rId15"/>
     <sheet name="MouseOver" sheetId="23" r:id="rId16"/>
-    <sheet name="AssertTypeKeys" sheetId="24" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="766">
   <si>
     <t>target</t>
   </si>
@@ -2392,73 +2391,17 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
-  <si>
-    <t>testing the use of desktop.typeKeys() on web page</t>
-  </si>
-  <si>
-    <t>open site</t>
-  </si>
-  <si>
-    <t>https://www.quackit.com/html_5/tags/html_textarea_tag.cfm</t>
-  </si>
-  <si>
-    <t>name=result1</t>
-  </si>
-  <si>
-    <t>css=textarea</t>
-  </si>
-  <si>
-    <t>css=.submit</t>
-  </si>
-  <si>
-    <t>focus on textarea</t>
-  </si>
-  <si>
-    <t>Mac,Windows</t>
-  </si>
-  <si>
-    <t>reset textarea for bigger editor</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>`~!@#$%^&amp;*()-_=+[]{}\|;:'",./&lt;&gt;?</t>
-  </si>
-  <si>
-    <t>type keys</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>[]\{}| ;':" ,./&lt;&gt;? ~!@#$%^&amp;*()_+ `1234567890-=</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2660,102 +2603,102 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2766,38 +2709,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2809,11 +2743,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2821,7 +2755,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2833,7 +2767,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2845,49 +2779,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6111,12 +6009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -6133,20 +6031,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -6155,10 +6053,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -6675,13 +6573,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6725,12 +6623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -6747,20 +6645,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -6769,10 +6667,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -7066,13 +6964,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="20" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="19" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="18" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7116,12 +7014,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -7138,20 +7036,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -7160,10 +7058,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -7326,13 +7224,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="15" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7377,12 +7275,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -7399,20 +7297,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -7421,10 +7319,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -7710,13 +7608,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="17" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="14" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="13" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="12" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7761,12 +7659,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -7783,20 +7681,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -7805,10 +7703,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -8027,13 +7925,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8079,12 +7977,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -8101,20 +7999,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -8123,10 +8021,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -8598,24 +8496,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N9 N12:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="5" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="4" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8662,12 +8560,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -8684,20 +8582,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -8706,10 +8604,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -8920,13 +8818,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8945,1161 +8843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C8890-277D-144D-B477-FA86229E725D}">
-  <dimension ref="A1:O67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="10" width="30" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="8" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="9" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
-    </row>
-    <row r="2" spans="1:15" ht="133" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-    </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>767</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>771</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>769</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>779</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>778</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>779</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="54" t="s">
-        <v>776</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-    </row>
-    <row r="53" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="6"/>
-    </row>
-    <row r="54" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-    </row>
-    <row r="55" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="6"/>
-    </row>
-    <row r="57" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="1:15" s="34" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="L2:O2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
-      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D54" xr:uid="{BC54E1D9-6B32-EB45-B386-318ABEC45F7B}">
-      <formula1>INDIRECT(C5)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C11" xr:uid="{D4A67003-E54D-B240-823A-9D6D6B45B197}">
-      <formula1>target</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="http://money.cnn.com/" display="http://money.cnn.com/" xr:uid="{8F452757-CBAC-E64E-8494-4DA1D36FB412}"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -10120,12 +8868,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -10142,20 +8890,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="27"/>
       <c r="G2" s="11"/>
@@ -10164,10 +8912,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -10443,13 +9191,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="101" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="98" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="13" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="97" priority="13" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="96" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10493,12 +9241,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -10515,20 +9263,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="27"/>
       <c r="G2" s="11"/>
@@ -10537,10 +9285,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -11707,13 +10455,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="98" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="95" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="97" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="94" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="96" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="93" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11763,12 +10511,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -11785,20 +10533,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="27"/>
       <c r="G2" s="11"/>
@@ -11807,10 +10555,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -12217,13 +10965,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="95" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="92" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="91" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="93" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="90" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12270,12 +11018,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -12292,20 +11040,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="27"/>
       <c r="G2" s="11"/>
@@ -12314,10 +11062,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -12759,13 +11507,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="92" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="89" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="91" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="88" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="87" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12811,12 +11559,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -12833,20 +11581,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="27"/>
       <c r="G2" s="11"/>
@@ -12855,10 +11603,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -13643,189 +12391,189 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N8">
-    <cfRule type="beginsWith" dxfId="89" priority="58" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="86" priority="58" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="59" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="85" priority="59" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="87" priority="60" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="84" priority="60" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="beginsWith" dxfId="86" priority="55" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="83" priority="55" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="85" priority="56" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="82" priority="56" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="84" priority="57" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="81" priority="57" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="83" priority="19" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="80" priority="19" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="82" priority="20" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="79" priority="20" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="81" priority="21" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="78" priority="21" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="80" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="77" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="79" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="76" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="78" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="75" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="77" priority="43" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="74" priority="43" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="76" priority="44" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="73" priority="44" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="75" priority="45" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="72" priority="45" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="74" priority="37" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="71" priority="37" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="73" priority="38" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="70" priority="38" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="39" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="69" priority="39" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="beginsWith" dxfId="71" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="68" priority="13" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="67" priority="14" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="66" priority="15" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="beginsWith" dxfId="68" priority="40" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="65" priority="40" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="67" priority="41" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="64" priority="41" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="66" priority="42" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="63" priority="42" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="65" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="62" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="64" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="61" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="63" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="60" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="beginsWith" dxfId="62" priority="31" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="59" priority="31" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="61" priority="32" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="58" priority="32" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="33" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="57" priority="33" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="beginsWith" dxfId="59" priority="25" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="56" priority="25" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="58" priority="26" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="55" priority="26" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="27" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="54" priority="27" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="beginsWith" dxfId="56" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="53" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="52" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="51" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N16">
-    <cfRule type="beginsWith" dxfId="53" priority="49" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="50" priority="49" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="52" priority="50" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="49" priority="50" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="51" priority="51" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="48" priority="51" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N19">
-    <cfRule type="beginsWith" dxfId="50" priority="52" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="47" priority="52" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="49" priority="53" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="46" priority="53" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="54" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="45" priority="54" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="beginsWith" dxfId="47" priority="16" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="44" priority="16" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="17" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="43" priority="17" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="18" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="42" priority="18" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N33">
-    <cfRule type="beginsWith" dxfId="44" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="41" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="40" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="39" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N7 N9:N11">
-    <cfRule type="beginsWith" dxfId="41" priority="70" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="38" priority="70" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="40" priority="71" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="37" priority="71" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="72" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="36" priority="72" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13869,12 +12617,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -13891,20 +12639,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -13913,10 +12661,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -14363,24 +13111,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="38" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="35" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="34" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="36" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="33" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N9 N11:N1048576">
-    <cfRule type="beginsWith" dxfId="35" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="32" priority="10" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="31" priority="11" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="30" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14425,12 +13173,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -14447,20 +13195,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -14469,10 +13217,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -15042,13 +13790,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N23 N35:N1048576 L24:L34">
-    <cfRule type="beginsWith" dxfId="32" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="29" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(L1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="28" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(L1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="27" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(L1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15093,12 +13841,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="10" t="s">
         <v>349</v>
       </c>
@@ -15115,20 +13863,20 @@
         <v>351</v>
       </c>
       <c r="J1" s="7"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="11"/>
@@ -15137,10 +13885,10 @@
         <v>604</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="8"/>
@@ -17028,13 +15776,13 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule type="beginsWith" dxfId="24" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_web.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BFC6E-1444-7F41-82B2-3B768C08A837}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D75BFC6E-1444-7F41-82B2-3B768C08A837}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15760" tabRatio="420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="420" windowHeight="15760" windowWidth="25600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="AssertElement" sheetId="2" r:id="rId2"/>
-    <sheet name="WindowDialog" sheetId="5" r:id="rId3"/>
-    <sheet name="AlertWindowPopUp" sheetId="19" r:id="rId4"/>
-    <sheet name="BoundaryElements" sheetId="8" r:id="rId5"/>
-    <sheet name="LocalStorage" sheetId="10" r:id="rId6"/>
-    <sheet name="Scroll" sheetId="11" r:id="rId7"/>
-    <sheet name="SelectMultiOption" sheetId="12" r:id="rId8"/>
-    <sheet name="ElementsOnResponsivePages" sheetId="16" r:id="rId9"/>
-    <sheet name="AssertingAttributes" sheetId="17" r:id="rId10"/>
-    <sheet name="SaveText" sheetId="13" r:id="rId11"/>
-    <sheet name="Frame" sheetId="18" r:id="rId12"/>
-    <sheet name="CheckBox" sheetId="14" r:id="rId13"/>
-    <sheet name="SavePartialText" sheetId="20" r:id="rId14"/>
-    <sheet name="DoubleClick" sheetId="22" r:id="rId15"/>
-    <sheet name="MouseOver" sheetId="23" r:id="rId16"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="AssertElement" r:id="rId2" sheetId="2"/>
+    <sheet name="WindowDialog" r:id="rId3" sheetId="5"/>
+    <sheet name="AlertWindowPopUp" r:id="rId4" sheetId="19"/>
+    <sheet name="BoundaryElements" r:id="rId5" sheetId="8"/>
+    <sheet name="LocalStorage" r:id="rId6" sheetId="10"/>
+    <sheet name="Scroll" r:id="rId7" sheetId="11"/>
+    <sheet name="SelectMultiOption" r:id="rId8" sheetId="12"/>
+    <sheet name="ElementsOnResponsivePages" r:id="rId9" sheetId="16"/>
+    <sheet name="AssertingAttributes" r:id="rId10" sheetId="17"/>
+    <sheet name="SaveText" r:id="rId11" sheetId="13"/>
+    <sheet name="Frame" r:id="rId12" sheetId="18"/>
+    <sheet name="CheckBox" r:id="rId13" sheetId="14"/>
+    <sheet name="SavePartialText" r:id="rId14" sheetId="20"/>
+    <sheet name="DoubleClick" r:id="rId15" sheetId="22"/>
+    <sheet name="MouseOver" r:id="rId16" sheetId="23"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -38,7 +38,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="768">
   <si>
     <t>target</t>
   </si>
@@ -2391,12 +2391,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2473,8 +2480,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2499,8 +2607,161 @@
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2600,189 +2861,563 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="99">
@@ -3777,7 +4412,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3802,10 +4437,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3969,21 +4604,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4000,7 +4635,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4054,19 +4689,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4161,7 +4796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -4256,7 +4891,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>681</v>
       </c>
@@ -4342,7 +4977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>706</v>
       </c>
@@ -4425,7 +5060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4499,7 +5134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4567,7 +5202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4629,7 +5264,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4685,7 +5320,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +5367,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4773,7 +5408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4811,7 +5446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +5484,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4884,7 +5519,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>736</v>
       </c>
@@ -4919,7 +5554,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>697</v>
       </c>
@@ -4951,7 +5586,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +5618,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5009,7 +5644,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5029,7 +5664,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5049,7 +5684,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>621</v>
       </c>
@@ -5069,7 +5704,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>633</v>
       </c>
@@ -5089,7 +5724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>634</v>
       </c>
@@ -5109,7 +5744,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5129,7 +5764,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>617</v>
       </c>
@@ -5149,7 +5784,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>763</v>
       </c>
@@ -5169,7 +5804,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -5189,7 +5824,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -5209,7 +5844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -5226,7 +5861,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -5243,7 +5878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>635</v>
       </c>
@@ -5257,7 +5892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -5271,7 +5906,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>192</v>
       </c>
@@ -5282,7 +5917,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>195</v>
       </c>
@@ -5293,7 +5928,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>198</v>
       </c>
@@ -5304,7 +5939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>201</v>
       </c>
@@ -5315,7 +5950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>204</v>
       </c>
@@ -5326,7 +5961,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>207</v>
       </c>
@@ -5337,7 +5972,7 @@
         <v>229</v>
     